--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>19.99999999999993</v>
+      </c>
       <c r="L12" t="n">
         <v>13.91</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.1</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L13" t="n">
         <v>13.93</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>13.88</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.799999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-57.14285714285705</v>
+      </c>
       <c r="L15" t="n">
         <v>13.82</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.299999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-11.11111111111107</v>
+      </c>
       <c r="L16" t="n">
         <v>13.79</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.799999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-30.43478260869561</v>
+      </c>
       <c r="L17" t="n">
         <v>13.72</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.099999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-12.00000000000003</v>
+      </c>
       <c r="L18" t="n">
         <v>13.68</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.099999999999998</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-8.333333333333377</v>
+      </c>
       <c r="L19" t="n">
         <v>13.65</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.199999999999998</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-8.333333333333309</v>
+      </c>
       <c r="L20" t="n">
         <v>13.62</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.399999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-13.04347826086961</v>
+      </c>
       <c r="L21" t="n">
         <v>13.62</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.499999999999998</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-8.333333333333309</v>
+      </c>
       <c r="L22" t="n">
         <v>13.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>22.22222222222225</v>
       </c>
       <c r="L23" t="n">
         <v>13.58</v>
@@ -1466,7 +1488,7 @@
         <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.882352941176501</v>
+        <v>22.22222222222214</v>
       </c>
       <c r="L24" t="n">
         <v>13.61</v>
@@ -1515,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>5.263157894736822</v>
+        <v>17.64705882352934</v>
       </c>
       <c r="L25" t="n">
         <v>13.69</v>
@@ -1564,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>66.66666666666652</v>
       </c>
       <c r="L26" t="n">
         <v>13.72</v>
@@ -1613,7 +1635,7 @@
         <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L27" t="n">
         <v>13.79</v>
@@ -1662,7 +1684,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.702702702702692</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L28" t="n">
         <v>13.82</v>
@@ -1711,7 +1733,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L29" t="n">
         <v>13.85</v>
@@ -1760,7 +1782,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>8.108108108108077</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L30" t="n">
         <v>13.91</v>
@@ -1809,7 +1831,7 @@
         <v>5.099999999999998</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.976744186046488</v>
+        <v>-25.00000000000003</v>
       </c>
       <c r="L31" t="n">
         <v>13.88</v>
@@ -1860,7 +1882,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.523809523809538</v>
+        <v>-11.11111111111118</v>
       </c>
       <c r="L32" t="n">
         <v>13.86</v>
@@ -1911,7 +1933,7 @@
         <v>5.399999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.62790697674419</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L33" t="n">
         <v>13.82999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.564102564102557</v>
+        <v>-50.00000000000006</v>
       </c>
       <c r="L34" t="n">
         <v>13.79</v>
@@ -2013,7 +2035,7 @@
         <v>5.999999999999995</v>
       </c>
       <c r="K35" t="n">
-        <v>9.523809523809499</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L35" t="n">
         <v>13.75</v>
@@ -2064,7 +2086,7 @@
         <v>6.399999999999993</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.19512195121953</v>
+        <v>-30.43478260869571</v>
       </c>
       <c r="L36" t="n">
         <v>13.67</v>
@@ -2115,7 +2137,7 @@
         <v>6.499999999999993</v>
       </c>
       <c r="K37" t="n">
-        <v>2.702702702702698</v>
+        <v>-21.73913043478267</v>
       </c>
       <c r="L37" t="n">
         <v>13.61</v>
@@ -2166,7 +2188,7 @@
         <v>6.599999999999993</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.857142857142851</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L38" t="n">
         <v>13.57</v>
@@ -2217,7 +2239,7 @@
         <v>6.599999999999993</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.857142857142851</v>
+        <v>-27.27272727272733</v>
       </c>
       <c r="L39" t="n">
         <v>13.53</v>
@@ -2268,7 +2290,7 @@
         <v>6.799999999999992</v>
       </c>
       <c r="K40" t="n">
-        <v>5.555555555555545</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L40" t="n">
         <v>13.49</v>
@@ -2319,7 +2341,7 @@
         <v>6.799999999999992</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L41" t="n">
         <v>13.52</v>
@@ -2370,7 +2392,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.882352941176514</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L42" t="n">
         <v>13.52</v>
@@ -2421,7 +2443,7 @@
         <v>6.999999999999991</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.857142857142903</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>13.54</v>
@@ -2523,7 +2545,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.12903225806456</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L45" t="n">
         <v>13.56999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>7.29999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-21.21212121212125</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>13.57999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>7.39999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-15.1515151515152</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>13.58999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>7.499999999999989</v>
       </c>
       <c r="K48" t="n">
-        <v>-15.1515151515152</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L48" t="n">
         <v>13.57999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>7.699999999999989</v>
       </c>
       <c r="K49" t="n">
-        <v>-8.571428571428617</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>13.58999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>7.899999999999988</v>
       </c>
       <c r="K50" t="n">
-        <v>-20.00000000000004</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L50" t="n">
         <v>13.55999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>7.999999999999988</v>
       </c>
       <c r="K51" t="n">
-        <v>-3.448275862068965</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L51" t="n">
         <v>13.52</v>
@@ -2880,7 +2902,7 @@
         <v>8.299999999999986</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L52" t="n">
         <v>13.52</v>
@@ -2931,7 +2953,7 @@
         <v>8.299999999999986</v>
       </c>
       <c r="K53" t="n">
-        <v>3.448275862068965</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L53" t="n">
         <v>13.51</v>
@@ -2982,7 +3004,7 @@
         <v>8.399999999999986</v>
       </c>
       <c r="K54" t="n">
-        <v>14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L54" t="n">
         <v>13.51</v>
@@ -3033,7 +3055,7 @@
         <v>8.799999999999985</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L55" t="n">
         <v>13.48</v>
@@ -3084,7 +3106,7 @@
         <v>9.199999999999983</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L56" t="n">
         <v>13.51</v>
@@ -3135,7 +3157,7 @@
         <v>9.299999999999983</v>
       </c>
       <c r="K57" t="n">
-        <v>7.142857142857142</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L57" t="n">
         <v>13.52</v>
@@ -3186,7 +3208,7 @@
         <v>9.399999999999983</v>
       </c>
       <c r="K58" t="n">
-        <v>7.142857142857142</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L58" t="n">
         <v>13.54999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>9.499999999999982</v>
       </c>
       <c r="K59" t="n">
-        <v>3.448275862068965</v>
+        <v>12.5</v>
       </c>
       <c r="L59" t="n">
         <v>13.54999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>9.599999999999982</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.142857142857142</v>
+        <v>12.5</v>
       </c>
       <c r="L60" t="n">
         <v>13.55999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>9.799999999999981</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>13.59999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>9.99999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.225806451612903</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L62" t="n">
         <v>13.58999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.225806451612903</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L63" t="n">
         <v>13.58999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L64" t="n">
         <v>13.58999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>13.62999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K66" t="n">
-        <v>10.3448275862069</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L66" t="n">
         <v>13.62999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>13.63999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>13.63999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>13.64999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>13.66999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>18.18181818181818</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>13.66999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>13.68999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>13.64999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>11.09999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L76" t="n">
         <v>13.63999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>13.59999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L78" t="n">
         <v>13.57999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>-4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L79" t="n">
         <v>13.55999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L80" t="n">
         <v>13.54</v>
@@ -4359,7 +4381,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>13.53</v>
@@ -4410,7 +4432,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>5.88235294117647</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L82" t="n">
         <v>13.53</v>
@@ -4461,7 +4483,7 @@
         <v>11.79999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>13.53</v>
@@ -4512,7 +4534,7 @@
         <v>11.79999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L84" t="n">
         <v>13.53</v>
@@ -4563,7 +4585,7 @@
         <v>11.79999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L85" t="n">
         <v>13.56999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>12.09999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>-15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L86" t="n">
         <v>13.54999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>12.09999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>13.55999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>12.19999999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>13.55999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>12.29999999999997</v>
       </c>
       <c r="K89" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>13.56999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>12.29999999999997</v>
       </c>
       <c r="K90" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>13.57999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>12.39999999999997</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>13.58999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>12.39999999999997</v>
       </c>
       <c r="K92" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>13.59999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>13.55999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>13.57999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K97" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L97" t="n">
         <v>13.59999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>13.60999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>13.60999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>13.60999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L101" t="n">
         <v>13.59999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>13.58999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>13.29999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>13.55999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>13.39999999999997</v>
       </c>
       <c r="K104" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>13.52</v>
@@ -5583,7 +5605,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K105" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>13.54999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K106" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>13.54999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K107" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>13.54999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K108" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>13.54999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>13.89999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L111" t="n">
         <v>13.53</v>
@@ -5940,7 +5962,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L112" t="n">
         <v>13.53</v>
@@ -5991,7 +6013,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L113" t="n">
         <v>13.54999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K114" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>13.57999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K115" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>13.57999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>14.29999999999997</v>
       </c>
       <c r="K119" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>13.55999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>14.39999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L120" t="n">
         <v>13.53</v>
@@ -6399,7 +6421,7 @@
         <v>14.49999999999997</v>
       </c>
       <c r="K121" t="n">
-        <v>-28.57142857142867</v>
+        <v>-100</v>
       </c>
       <c r="L121" t="n">
         <v>13.50999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>14.59999999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>-19.99999999999995</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L122" t="n">
         <v>13.48</v>
@@ -6501,7 +6523,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L123" t="n">
         <v>13.46</v>
@@ -6552,7 +6574,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>14.28571428571425</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L124" t="n">
         <v>13.45</v>
@@ -6654,7 +6676,7 @@
         <v>14.99999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>-7.692307692307672</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L126" t="n">
         <v>13.44</v>
@@ -6705,7 +6727,7 @@
         <v>14.99999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>-7.692307692307672</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L127" t="n">
         <v>13.43</v>
@@ -6756,7 +6778,7 @@
         <v>14.99999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>-7.692307692307672</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L128" t="n">
         <v>13.42</v>
@@ -6807,7 +6829,7 @@
         <v>15.09999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>-14.28571428571425</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L129" t="n">
         <v>13.42</v>
@@ -6858,7 +6880,7 @@
         <v>15.09999999999997</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.28571428571425</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L130" t="n">
         <v>13.43</v>
@@ -6909,7 +6931,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>7.692307692307672</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>13.46</v>
@@ -6960,7 +6982,7 @@
         <v>15.29999999999997</v>
       </c>
       <c r="K132" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>13.47</v>
@@ -7011,7 +7033,7 @@
         <v>15.39999999999996</v>
       </c>
       <c r="K133" t="n">
-        <v>-23.07692307692301</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>13.46</v>
@@ -7113,7 +7135,7 @@
         <v>15.69999999999996</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>13.47</v>
@@ -7164,7 +7186,7 @@
         <v>15.79999999999996</v>
       </c>
       <c r="K136" t="n">
-        <v>5.882352941176458</v>
+        <v>25</v>
       </c>
       <c r="L136" t="n">
         <v>13.49</v>
@@ -7215,7 +7237,7 @@
         <v>15.79999999999996</v>
       </c>
       <c r="K137" t="n">
-        <v>5.882352941176458</v>
+        <v>25</v>
       </c>
       <c r="L137" t="n">
         <v>13.51</v>
@@ -7266,7 +7288,7 @@
         <v>15.89999999999996</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L138" t="n">
         <v>13.52</v>
@@ -7317,7 +7339,7 @@
         <v>15.99999999999996</v>
       </c>
       <c r="K139" t="n">
-        <v>17.64705882352937</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>13.54999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>17.64705882352937</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L140" t="n">
         <v>13.56999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K141" t="n">
-        <v>25.00000000000008</v>
+        <v>25</v>
       </c>
       <c r="L141" t="n">
         <v>13.57999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K142" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L142" t="n">
         <v>13.59999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>13.62999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>16.19999999999996</v>
       </c>
       <c r="K144" t="n">
-        <v>14.2857142857143</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L144" t="n">
         <v>13.63999999999999</v>
@@ -7623,7 +7645,7 @@
         <v>16.29999999999996</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>13.63999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>16.39999999999996</v>
       </c>
       <c r="K146" t="n">
-        <v>14.28571428571427</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>13.63999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>16.39999999999996</v>
       </c>
       <c r="K147" t="n">
-        <v>14.28571428571427</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L147" t="n">
         <v>13.63999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>16.39999999999996</v>
       </c>
       <c r="K148" t="n">
-        <v>14.28571428571427</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>13.64999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>16.39999999999996</v>
       </c>
       <c r="K149" t="n">
-        <v>23.07692307692304</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L149" t="n">
         <v>13.64999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K150" t="n">
-        <v>6.666666666666658</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L150" t="n">
         <v>13.63999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>16.79999999999996</v>
       </c>
       <c r="K151" t="n">
-        <v>12.49999999999999</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L151" t="n">
         <v>13.64999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>16.79999999999996</v>
       </c>
       <c r="K152" t="n">
-        <v>19.99999999999998</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L152" t="n">
         <v>13.65999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>16.79999999999996</v>
       </c>
       <c r="K153" t="n">
-        <v>28.57142857142854</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>13.66999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>16.79999999999996</v>
       </c>
       <c r="K154" t="n">
-        <v>9.090909090909076</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L154" t="n">
         <v>13.66999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L155" t="n">
         <v>13.66999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>16.99999999999996</v>
       </c>
       <c r="K156" t="n">
-        <v>-16.66666666666659</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L156" t="n">
         <v>13.64999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>17.19999999999996</v>
       </c>
       <c r="K158" t="n">
-        <v>7.692307692307661</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>13.64999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>17.19999999999996</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L159" t="n">
         <v>13.64999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>17.29999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>16.66666666666671</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L160" t="n">
         <v>13.67999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>17.39999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>7.69230769230764</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>13.67999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>14.2857142857143</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L162" t="n">
         <v>13.68999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>14.2857142857143</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L163" t="n">
         <v>13.69999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>7.692307692307756</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L164" t="n">
         <v>13.71</v>
@@ -8643,7 +8665,7 @@
         <v>17.59999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>7.692307692307619</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L165" t="n">
         <v>13.72</v>
@@ -8745,7 +8767,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>7.692307692307756</v>
+        <v>20</v>
       </c>
       <c r="L167" t="n">
         <v>13.75</v>
@@ -8796,7 +8818,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>7.692307692307756</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>13.76</v>
@@ -8847,7 +8869,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>7.692307692307756</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>13.77</v>
@@ -8898,7 +8920,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>27.27272727272713</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>13.77</v>
@@ -8949,7 +8971,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>11.11111111111116</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>13.78</v>
@@ -9000,7 +9022,7 @@
         <v>17.79999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>19.99999999999996</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L172" t="n">
         <v>13.79</v>
@@ -9051,7 +9073,7 @@
         <v>17.79999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>19.99999999999996</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L173" t="n">
         <v>13.8</v>
@@ -9102,7 +9124,7 @@
         <v>17.89999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>9.09090909090915</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L174" t="n">
         <v>13.8</v>
@@ -9153,7 +9175,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>38.46153846153834</v>
+        <v>66.66666666666697</v>
       </c>
       <c r="L175" t="n">
         <v>13.84</v>
@@ -9204,7 +9226,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K176" t="n">
-        <v>49.99999999999985</v>
+        <v>60.00000000000021</v>
       </c>
       <c r="L176" t="n">
         <v>13.88</v>
@@ -9255,7 +9277,7 @@
         <v>18.39999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>16.66666666666671</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L177" t="n">
         <v>13.89</v>
@@ -9306,7 +9328,7 @@
         <v>18.39999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>16.66666666666671</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L178" t="n">
         <v>13.9</v>
@@ -9357,7 +9379,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K179" t="n">
-        <v>23.07692307692312</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L179" t="n">
         <v>13.92</v>
@@ -9408,7 +9430,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K180" t="n">
-        <v>16.66666666666662</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L180" t="n">
         <v>13.94</v>
@@ -9459,7 +9481,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K181" t="n">
-        <v>27.27272727272739</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L181" t="n">
         <v>13.96</v>
@@ -9510,7 +9532,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K182" t="n">
-        <v>20</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L182" t="n">
         <v>13.97</v>
@@ -9561,7 +9583,7 @@
         <v>18.59999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>27.27272727272723</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L183" t="n">
         <v>13.99</v>
@@ -9612,7 +9634,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K184" t="n">
-        <v>16.66666666666662</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L184" t="n">
         <v>14.01</v>
@@ -9663,7 +9685,7 @@
         <v>18.79999999999997</v>
       </c>
       <c r="K185" t="n">
-        <v>33.33333333333338</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>14.01</v>
@@ -9714,7 +9736,7 @@
         <v>19.39999999999997</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.11111111111107</v>
+        <v>-39.99999999999989</v>
       </c>
       <c r="L186" t="n">
         <v>13.95</v>
@@ -9765,7 +9787,7 @@
         <v>19.89999999999997</v>
       </c>
       <c r="K187" t="n">
-        <v>9.090909090909062</v>
+        <v>6.666666666666628</v>
       </c>
       <c r="L187" t="n">
         <v>13.96</v>
@@ -9816,7 +9838,7 @@
         <v>19.99999999999997</v>
       </c>
       <c r="K188" t="n">
-        <v>4.347826086956505</v>
+        <v>-6.666666666666611</v>
       </c>
       <c r="L188" t="n">
         <v>13.96</v>
@@ -9867,7 +9889,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K189" t="n">
-        <v>-4.000000000000052</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L189" t="n">
         <v>13.93</v>
@@ -9918,7 +9940,7 @@
         <v>20.29999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.692307692307719</v>
+        <v>-22.2222222222221</v>
       </c>
       <c r="L190" t="n">
         <v>13.89</v>
@@ -9969,7 +9991,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>-3.703703703703748</v>
+        <v>-15.78947368421046</v>
       </c>
       <c r="L191" t="n">
         <v>13.85999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>20.49999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>-3.703703703703677</v>
+        <v>-15.78947368421036</v>
       </c>
       <c r="L192" t="n">
         <v>13.83999999999999</v>
@@ -10071,7 +10093,7 @@
         <v>20.49999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>-3.703703703703677</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L193" t="n">
         <v>13.81</v>
@@ -10122,7 +10144,7 @@
         <v>20.49999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>-17.64705882352925</v>
       </c>
       <c r="L194" t="n">
         <v>13.79</v>
@@ -10173,7 +10195,7 @@
         <v>20.59999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>-16.66666666666659</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L195" t="n">
         <v>13.75</v>
@@ -10224,7 +10246,7 @@
         <v>20.69999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>-19.99999999999989</v>
+        <v>-49.99999999999933</v>
       </c>
       <c r="L196" t="n">
         <v>13.76</v>
@@ -10275,7 +10297,7 @@
         <v>20.69999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>-13.04347826086951</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L197" t="n">
         <v>13.72</v>
@@ -10326,7 +10348,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>-8.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>13.69999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>-13.04347826086949</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L199" t="n">
         <v>13.69999999999999</v>
@@ -10428,7 +10450,7 @@
         <v>20.89999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>-8.333333333333234</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>13.72</v>
@@ -10479,7 +10501,7 @@
         <v>20.89999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>-8.333333333333234</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>13.73</v>
@@ -10530,7 +10552,7 @@
         <v>20.89999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>-8.333333333333234</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>13.73</v>
@@ -10581,7 +10603,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-8.333333333333234</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L203" t="n">
         <v>13.74</v>
@@ -10632,7 +10654,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.347826086956472</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L204" t="n">
         <v>13.75</v>
@@ -10683,7 +10705,7 @@
         <v>21.09999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>-13.04347826086942</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L205" t="n">
         <v>13.76</v>
@@ -10734,7 +10756,7 @@
         <v>21.09999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>17.64705882352928</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L206" t="n">
         <v>13.78</v>
@@ -10785,7 +10807,7 @@
         <v>21.09999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>-16.66666666666637</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>13.8</v>
@@ -10836,7 +10858,7 @@
         <v>21.19999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>13.8</v>
@@ -10887,7 +10909,7 @@
         <v>21.29999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>13.81000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>21.39999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>27.27272727272695</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L210" t="n">
         <v>13.82</v>
@@ -10989,7 +11011,7 @@
         <v>21.59999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>33.33333333333299</v>
+        <v>42.85714285714231</v>
       </c>
       <c r="L211" t="n">
         <v>13.85</v>
@@ -11040,7 +11062,7 @@
         <v>21.59999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>27.27272727272688</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L212" t="n">
         <v>13.88</v>
@@ -11091,7 +11113,7 @@
         <v>21.59999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>27.27272727272688</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L213" t="n">
         <v>13.9</v>
@@ -11142,7 +11164,7 @@
         <v>21.59999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>27.27272727272688</v>
+        <v>59.99999999999937</v>
       </c>
       <c r="L214" t="n">
         <v>13.92</v>
@@ -11193,7 +11215,7 @@
         <v>21.69999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>27.27272727272713</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L215" t="n">
         <v>13.94</v>
@@ -11244,7 +11266,7 @@
         <v>21.89999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>13.94</v>
@@ -11295,7 +11317,7 @@
         <v>22.29999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>37.49999999999986</v>
+        <v>45.45454545454554</v>
       </c>
       <c r="L217" t="n">
         <v>13.98</v>
@@ -11346,7 +11368,7 @@
         <v>22.39999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>25</v>
+        <v>27.27272727272732</v>
       </c>
       <c r="L218" t="n">
         <v>14.02</v>
@@ -11397,7 +11419,7 @@
         <v>22.59999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>11.11111111111117</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>14.03</v>
@@ -11448,7 +11470,7 @@
         <v>22.79999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>-5.263157894736921</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L220" t="n">
         <v>14.00999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>22.99999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>4.761904761904741</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L221" t="n">
         <v>13.98999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>22.99999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>4.761904761904741</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L222" t="n">
         <v>13.97</v>
@@ -11601,7 +11623,7 @@
         <v>23.49999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>-20</v>
+        <v>-36.84210526315795</v>
       </c>
       <c r="L223" t="n">
         <v>13.9</v>
@@ -11652,7 +11674,7 @@
         <v>23.89999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.448275862068955</v>
+        <v>-9.090909090909076</v>
       </c>
       <c r="L224" t="n">
         <v>13.87</v>
@@ -11703,7 +11725,7 @@
         <v>24.09999999999999</v>
       </c>
       <c r="K225" t="n">
-        <v>-6.666666666666702</v>
+        <v>-9.090909090909143</v>
       </c>
       <c r="L225" t="n">
         <v>13.83</v>
@@ -11754,7 +11776,7 @@
         <v>24.19999999999999</v>
       </c>
       <c r="K226" t="n">
-        <v>-9.67741935483873</v>
+        <v>-36.84210526315781</v>
       </c>
       <c r="L226" t="n">
         <v>13.8</v>
@@ -11805,7 +11827,7 @@
         <v>24.29999999999999</v>
       </c>
       <c r="K227" t="n">
-        <v>-6.250000000000028</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L227" t="n">
         <v>13.74</v>
@@ -11856,7 +11878,7 @@
         <v>24.29999999999999</v>
       </c>
       <c r="K228" t="n">
-        <v>-3.22580645161289</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L228" t="n">
         <v>13.69</v>
@@ -11907,7 +11929,7 @@
         <v>24.59999999999999</v>
       </c>
       <c r="K229" t="n">
-        <v>3.030303030303019</v>
+        <v>11.11111111111112</v>
       </c>
       <c r="L229" t="n">
         <v>13.69</v>
@@ -11958,7 +11980,7 @@
         <v>24.89999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>-8.571428571428592</v>
+        <v>-15.78947368421052</v>
       </c>
       <c r="L230" t="n">
         <v>13.68</v>
@@ -12009,7 +12031,7 @@
         <v>24.99999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>-11.76470588235294</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L231" t="n">
         <v>13.66</v>
@@ -12060,7 +12082,7 @@
         <v>25.09999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>-14.28571428571427</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L232" t="n">
         <v>13.63</v>
@@ -12111,7 +12133,7 @@
         <v>25.2</v>
       </c>
       <c r="K233" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L233" t="n">
         <v>13.65999999999999</v>
@@ -12162,7 +12184,7 @@
         <v>25.3</v>
       </c>
       <c r="K234" t="n">
-        <v>-13.51351351351349</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>13.63999999999999</v>
@@ -12213,7 +12235,7 @@
         <v>25.4</v>
       </c>
       <c r="K235" t="n">
-        <v>-8.108108108108105</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L235" t="n">
         <v>13.64999999999999</v>
@@ -12264,7 +12286,7 @@
         <v>25.5</v>
       </c>
       <c r="K236" t="n">
-        <v>-5.555555555555566</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>13.65999999999999</v>
@@ -12315,7 +12337,7 @@
         <v>25.6</v>
       </c>
       <c r="K237" t="n">
-        <v>-15.15151515151508</v>
+        <v>7.692307692307598</v>
       </c>
       <c r="L237" t="n">
         <v>13.66999999999999</v>
@@ -12366,7 +12388,7 @@
         <v>25.8</v>
       </c>
       <c r="K238" t="n">
-        <v>-17.64705882352932</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L238" t="n">
         <v>13.65999999999999</v>
@@ -12417,7 +12439,7 @@
         <v>26</v>
       </c>
       <c r="K239" t="n">
-        <v>-17.64705882352932</v>
+        <v>-27.27272727272696</v>
       </c>
       <c r="L239" t="n">
         <v>13.59999999999999</v>
@@ -12468,7 +12490,7 @@
         <v>26.1</v>
       </c>
       <c r="K240" t="n">
-        <v>-9.090909090909008</v>
+        <v>-27.27272727272696</v>
       </c>
       <c r="L240" t="n">
         <v>13.57999999999999</v>
@@ -12519,7 +12541,7 @@
         <v>26.2</v>
       </c>
       <c r="K241" t="n">
-        <v>-18.74999999999989</v>
+        <v>-27.27272727272696</v>
       </c>
       <c r="L241" t="n">
         <v>13.54</v>
@@ -12570,7 +12592,7 @@
         <v>26.4</v>
       </c>
       <c r="K242" t="n">
-        <v>-11.7647058823529</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L242" t="n">
         <v>13.53</v>
@@ -12621,7 +12643,7 @@
         <v>26.5</v>
       </c>
       <c r="K243" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>13.52</v>
@@ -12672,7 +12694,7 @@
         <v>26.5</v>
       </c>
       <c r="K244" t="n">
-        <v>-7.692307692307687</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L244" t="n">
         <v>13.52</v>
@@ -12774,7 +12796,7 @@
         <v>26.6</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L246" t="n">
         <v>13.5</v>
@@ -12825,7 +12847,7 @@
         <v>26.7</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L247" t="n">
         <v>13.49</v>
@@ -12876,7 +12898,7 @@
         <v>26.7</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L248" t="n">
         <v>13.5</v>
@@ -12927,7 +12949,7 @@
         <v>26.9</v>
       </c>
       <c r="K249" t="n">
-        <v>-21.7391304347825</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>13.51</v>
@@ -12978,7 +13000,7 @@
         <v>27.2</v>
       </c>
       <c r="K250" t="n">
-        <v>-21.7391304347825</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L250" t="n">
         <v>13.48</v>
@@ -13029,7 +13051,7 @@
         <v>27.2</v>
       </c>
       <c r="K251" t="n">
-        <v>-27.27272727272713</v>
+        <v>-50</v>
       </c>
       <c r="L251" t="n">
         <v>13.45999999999999</v>
@@ -13080,7 +13102,7 @@
         <v>27.40000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>-13.04347826086945</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>13.43999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>27.70000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>-27.99999999999985</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L253" t="n">
         <v>13.38</v>
@@ -13182,7 +13204,7 @@
         <v>27.70000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>-24.99999999999989</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L254" t="n">
         <v>13.32</v>
@@ -13233,7 +13255,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>-19.99999999999994</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L255" t="n">
         <v>13.28</v>
@@ -13284,7 +13306,7 @@
         <v>28.00000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>-11.99999999999992</v>
+        <v>-23.07692307692292</v>
       </c>
       <c r="L256" t="n">
         <v>13.26</v>
@@ -13335,7 +13357,7 @@
         <v>28.00000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>-16.66666666666657</v>
+        <v>-23.07692307692292</v>
       </c>
       <c r="L257" t="n">
         <v>13.23</v>
@@ -13386,7 +13408,7 @@
         <v>28.10000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>-13.04347826086955</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L258" t="n">
         <v>13.19</v>
@@ -13437,7 +13459,7 @@
         <v>28.10000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>-4.76190476190481</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L259" t="n">
         <v>13.17</v>
@@ -13488,7 +13510,7 @@
         <v>28.30000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>-18.18181818181815</v>
+        <v>-9.090909090909017</v>
       </c>
       <c r="L260" t="n">
         <v>13.16</v>
@@ -13539,7 +13561,7 @@
         <v>28.30000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>13.15</v>
@@ -13590,7 +13612,7 @@
         <v>28.60000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>-9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>13.15</v>
@@ -13641,7 +13663,7 @@
         <v>28.60000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>-14.28571428571418</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>13.18</v>
@@ -13692,7 +13714,7 @@
         <v>28.80000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-4.347826086956492</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>13.23</v>
@@ -13743,7 +13765,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-8.333333333333284</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L265" t="n">
         <v>13.25</v>
@@ -13794,7 +13816,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>-4.347826086956498</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L266" t="n">
         <v>13.26</v>
@@ -13845,7 +13867,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>-9.090909090909047</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L267" t="n">
         <v>13.27</v>
@@ -13896,7 +13918,7 @@
         <v>29.00000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>-13.0434782608695</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L268" t="n">
         <v>13.28</v>
@@ -13947,7 +13969,7 @@
         <v>29.00000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>-4.761904761904734</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L269" t="n">
         <v>13.29</v>
@@ -13998,7 +14020,7 @@
         <v>29.00000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>11.11111111111114</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L270" t="n">
         <v>13.32</v>
@@ -14049,7 +14071,7 @@
         <v>29.10000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>5.263157894736808</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L271" t="n">
         <v>13.34</v>
@@ -14151,7 +14173,7 @@
         <v>29.30000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>24.99999999999994</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L273" t="n">
         <v>13.35</v>
@@ -14202,7 +14224,7 @@
         <v>29.30000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>24.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>13.34</v>
@@ -14253,7 +14275,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>19.99999999999995</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L275" t="n">
         <v>13.35</v>
@@ -14304,7 +14326,7 @@
         <v>29.50000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>13.35</v>
@@ -14355,7 +14377,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>-27.27272727272722</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L277" t="n">
         <v>13.28</v>
@@ -14406,7 +14428,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-23.80952380952371</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L278" t="n">
         <v>13.22</v>
@@ -14457,7 +14479,7 @@
         <v>30.40000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>-13.04347826086945</v>
+        <v>-28.57142857142833</v>
       </c>
       <c r="L279" t="n">
         <v>13.18</v>
@@ -14508,7 +14530,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>8.333333333333272</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>13.17</v>
@@ -14559,7 +14581,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>8.333333333333272</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L281" t="n">
         <v>13.17</v>
@@ -14610,7 +14632,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>-4.76190476190481</v>
+        <v>-14.2857142857143</v>
       </c>
       <c r="L282" t="n">
         <v>13.15999999999999</v>
@@ -14661,7 +14683,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>-4.76190476190481</v>
+        <v>-14.2857142857143</v>
       </c>
       <c r="L283" t="n">
         <v>13.13999999999999</v>
@@ -14712,7 +14734,7 @@
         <v>30.80000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>-9.999999999999911</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L284" t="n">
         <v>13.12999999999999</v>
@@ -14763,7 +14785,7 @@
         <v>30.80000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>-5.263157894736787</v>
+        <v>-7.69230769230764</v>
       </c>
       <c r="L285" t="n">
         <v>13.10999999999999</v>
@@ -14814,7 +14836,7 @@
         <v>30.80000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>-5.263157894736787</v>
+        <v>100</v>
       </c>
       <c r="L286" t="n">
         <v>13.09999999999999</v>
@@ -14865,7 +14887,7 @@
         <v>30.80000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>-5.263157894736787</v>
+        <v>100</v>
       </c>
       <c r="L287" t="n">
         <v>13.16</v>
@@ -14916,7 +14938,7 @@
         <v>30.80000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L288" t="n">
         <v>13.22</v>
@@ -14967,7 +14989,7 @@
         <v>31.10000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>-14.28571428571424</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L289" t="n">
         <v>13.23</v>
@@ -15018,7 +15040,7 @@
         <v>31.40000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L290" t="n">
         <v>13.24</v>

--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -9341,225 +9341,195 @@
         <v>13.65666666666667</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C257" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D257" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E257" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1223.7481</v>
+      </c>
+      <c r="G257" t="n">
+        <v>13.65166666666667</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
         <v>13.2</v>
       </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
+      <c r="C258" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D258" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E258" t="n">
+        <v>13</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G258" t="n">
+        <v>13.64333333333334</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>13</v>
+      </c>
+      <c r="C259" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>13</v>
+      </c>
+      <c r="F259" t="n">
+        <v>510</v>
+      </c>
+      <c r="G259" t="n">
+        <v>13.635</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>13</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13</v>
+      </c>
+      <c r="D260" t="n">
+        <v>13</v>
+      </c>
+      <c r="E260" t="n">
+        <v>13</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G260" t="n">
+        <v>13.62166666666667</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>13</v>
+      </c>
+      <c r="C261" t="n">
+        <v>13</v>
+      </c>
+      <c r="D261" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>13</v>
+      </c>
+      <c r="F261" t="n">
+        <v>4530</v>
+      </c>
+      <c r="G261" t="n">
+        <v>13.60833333333334</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>13</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C257" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D257" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E257" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1223.7481</v>
-      </c>
-      <c r="G257" t="n">
-        <v>13.65166666666667</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C258" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D258" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E258" t="n">
-        <v>13</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1010</v>
-      </c>
-      <c r="G258" t="n">
-        <v>13.64333333333334</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>13</v>
-      </c>
-      <c r="C259" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D259" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E259" t="n">
-        <v>13</v>
-      </c>
-      <c r="F259" t="n">
-        <v>510</v>
-      </c>
-      <c r="G259" t="n">
-        <v>13.635</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>13</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>13</v>
-      </c>
-      <c r="C260" t="n">
-        <v>13</v>
-      </c>
-      <c r="D260" t="n">
-        <v>13</v>
-      </c>
-      <c r="E260" t="n">
-        <v>13</v>
-      </c>
-      <c r="F260" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G260" t="n">
-        <v>13.62166666666667</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>13</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>13</v>
-      </c>
-      <c r="C261" t="n">
-        <v>13</v>
-      </c>
-      <c r="D261" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E261" t="n">
-        <v>13</v>
-      </c>
-      <c r="F261" t="n">
-        <v>4530</v>
-      </c>
-      <c r="G261" t="n">
-        <v>13.60833333333334</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
-        <v>13</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
@@ -9675,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
@@ -9716,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
@@ -9757,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
@@ -9792,14 +9762,12 @@
         <v>13.56333333333334</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -9833,14 +9801,12 @@
         <v>13.55666666666667</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>13</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -9874,14 +9840,12 @@
         <v>13.54833333333334</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>

--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M269"/>
+  <dimension ref="A1:M270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>222538.7141</v>
       </c>
       <c r="G2" t="n">
-        <v>14.28666666666666</v>
+        <v>14.29499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D3" t="n">
         <v>13.9</v>
       </c>
       <c r="E3" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="F3" t="n">
-        <v>299930</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>14.275</v>
+        <v>14.28666666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D4" t="n">
         <v>13.9</v>
       </c>
       <c r="E4" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>299930</v>
       </c>
       <c r="G4" t="n">
-        <v>14.26666666666666</v>
+        <v>14.275</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C5" t="n">
         <v>13.9</v>
@@ -547,13 +547,13 @@
         <v>13.9</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="F5" t="n">
-        <v>994.8201</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>14.25666666666666</v>
+        <v>14.26666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="C6" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E6" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>994.8201</v>
       </c>
       <c r="G6" t="n">
-        <v>14.24999999999999</v>
+        <v>14.25666666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>14.24333333333333</v>
+        <v>14.24999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>14</v>
@@ -652,13 +652,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>14.23499999999999</v>
+        <v>14.24333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>13.8</v>
       </c>
       <c r="C9" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>13.8</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>14.22499999999999</v>
+        <v>14.23499999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>13.8</v>
       </c>
       <c r="C10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E10" t="n">
         <v>13.8</v>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>14.21666666666666</v>
+        <v>14.22499999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F11" t="n">
-        <v>236.2763</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>14.20499999999999</v>
+        <v>14.21666666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>236.2763</v>
       </c>
       <c r="G12" t="n">
-        <v>14.19833333333333</v>
+        <v>14.20499999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>14</v>
@@ -827,13 +827,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>29935</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>14.19333333333333</v>
+        <v>14.19833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>13.7</v>
       </c>
       <c r="C14" t="n">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="F14" t="n">
-        <v>241279.1149</v>
+        <v>29935</v>
       </c>
       <c r="G14" t="n">
-        <v>14.175</v>
+        <v>14.19333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="C15" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D15" t="n">
         <v>13.9</v>
       </c>
       <c r="E15" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F15" t="n">
-        <v>86240.8737</v>
+        <v>241279.1149</v>
       </c>
       <c r="G15" t="n">
-        <v>14.155</v>
+        <v>14.175</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="C16" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="D16" t="n">
         <v>13.9</v>
       </c>
       <c r="E16" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="F16" t="n">
-        <v>249920</v>
+        <v>86240.8737</v>
       </c>
       <c r="G16" t="n">
-        <v>14.14333333333333</v>
+        <v>14.155</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="C17" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="D17" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="E17" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>249920</v>
       </c>
       <c r="G17" t="n">
-        <v>14.12333333333333</v>
+        <v>14.14333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C18" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D18" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="E18" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F18" t="n">
-        <v>67.83580000000001</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>14.11166666666666</v>
+        <v>14.12333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C19" t="n">
         <v>13.6</v>
       </c>
       <c r="D19" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E19" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F19" t="n">
-        <v>56.1823</v>
+        <v>67.83580000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>14.1</v>
+        <v>14.11166666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>13.5</v>
       </c>
       <c r="C20" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D20" t="n">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="E20" t="n">
         <v>13.5</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>56.1823</v>
       </c>
       <c r="G20" t="n">
-        <v>14.08666666666666</v>
+        <v>14.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E21" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F21" t="n">
-        <v>18.1823</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>14.08</v>
+        <v>14.08666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>13.7</v>
       </c>
       <c r="C22" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D22" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E22" t="n">
         <v>13.7</v>
       </c>
       <c r="F22" t="n">
-        <v>58.1823</v>
+        <v>18.1823</v>
       </c>
       <c r="G22" t="n">
-        <v>14.07166666666666</v>
+        <v>14.08</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>13.7</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>58.1823</v>
       </c>
       <c r="G23" t="n">
-        <v>14.06333333333333</v>
+        <v>14.07166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>13.7</v>
       </c>
       <c r="C24" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D24" t="n">
         <v>13.8</v>
@@ -1215,10 +1215,10 @@
         <v>13.7</v>
       </c>
       <c r="F24" t="n">
-        <v>5236.6704</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>14.055</v>
+        <v>14.06333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>13.7</v>
       </c>
       <c r="C25" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="D25" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E25" t="n">
         <v>13.7</v>
       </c>
       <c r="F25" t="n">
-        <v>195259.6958851064</v>
+        <v>5236.6704</v>
       </c>
       <c r="G25" t="n">
-        <v>14.05166666666667</v>
+        <v>14.055</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="C26" t="n">
         <v>14.1</v>
@@ -1282,13 +1282,13 @@
         <v>14.1</v>
       </c>
       <c r="E26" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F26" t="n">
-        <v>44</v>
+        <v>195259.6958851064</v>
       </c>
       <c r="G26" t="n">
-        <v>14.04833333333333</v>
+        <v>14.05166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>13.9</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E27" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="F27" t="n">
-        <v>66550.89109999999</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>14.04</v>
+        <v>14.04833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>13.9</v>
       </c>
       <c r="C28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F28" t="n">
-        <v>12128.1428</v>
+        <v>66550.89109999999</v>
       </c>
       <c r="G28" t="n">
-        <v>14.02833333333333</v>
+        <v>14.04</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>13.9</v>
       </c>
       <c r="D29" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
         <v>13.9</v>
       </c>
       <c r="F29" t="n">
-        <v>997.8190352112676</v>
+        <v>12128.1428</v>
       </c>
       <c r="G29" t="n">
-        <v>14.01666666666666</v>
+        <v>14.02833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>13.9</v>
       </c>
       <c r="C30" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D30" t="n">
         <v>14.2</v>
@@ -1425,10 +1425,10 @@
         <v>13.9</v>
       </c>
       <c r="F30" t="n">
-        <v>119.8186</v>
+        <v>997.8190352112676</v>
       </c>
       <c r="G30" t="n">
-        <v>14.01</v>
+        <v>14.01666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>13.9</v>
       </c>
       <c r="C31" t="n">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="D31" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E31" t="n">
         <v>13.9</v>
       </c>
-      <c r="E31" t="n">
-        <v>13.4</v>
-      </c>
       <c r="F31" t="n">
-        <v>199922</v>
+        <v>119.8186</v>
       </c>
       <c r="G31" t="n">
-        <v>13.99166666666667</v>
+        <v>14.01</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C32" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D32" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E32" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F32" t="n">
-        <v>28</v>
+        <v>199922</v>
       </c>
       <c r="G32" t="n">
-        <v>13.97666666666666</v>
+        <v>13.99166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C33" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D33" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E33" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F33" t="n">
-        <v>56521.0454</v>
+        <v>28</v>
       </c>
       <c r="G33" t="n">
-        <v>13.96</v>
+        <v>13.97666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>13.6</v>
       </c>
       <c r="C34" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D34" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E34" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F34" t="n">
-        <v>172498.9546</v>
+        <v>56521.0454</v>
       </c>
       <c r="G34" t="n">
-        <v>13.94</v>
+        <v>13.96</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C35" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="D35" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E35" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F35" t="n">
-        <v>5018.1814</v>
+        <v>172498.9546</v>
       </c>
       <c r="G35" t="n">
-        <v>13.92833333333333</v>
+        <v>13.94</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C36" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D36" t="n">
         <v>13.7</v>
       </c>
       <c r="E36" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F36" t="n">
-        <v>35588.5882</v>
+        <v>5018.1814</v>
       </c>
       <c r="G36" t="n">
-        <v>13.91166666666667</v>
+        <v>13.92833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D37" t="n">
         <v>13.7</v>
       </c>
       <c r="E37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F37" t="n">
-        <v>31378.2937</v>
+        <v>35588.5882</v>
       </c>
       <c r="G37" t="n">
-        <v>13.895</v>
+        <v>13.91166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C38" t="n">
         <v>13.4</v>
       </c>
-      <c r="C38" t="n">
-        <v>13.5</v>
-      </c>
       <c r="D38" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E38" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="F38" t="n">
-        <v>169891.75</v>
+        <v>31378.2937</v>
       </c>
       <c r="G38" t="n">
-        <v>13.88166666666667</v>
+        <v>13.895</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>13.5</v>
       </c>
       <c r="E39" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F39" t="n">
-        <v>40.2962</v>
+        <v>169891.75</v>
       </c>
       <c r="G39" t="n">
-        <v>13.87</v>
+        <v>13.88166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C40" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D40" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E40" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F40" t="n">
-        <v>37</v>
+        <v>40.2962</v>
       </c>
       <c r="G40" t="n">
-        <v>13.86</v>
+        <v>13.87</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>13.6</v>
       </c>
       <c r="F41" t="n">
-        <v>3028.1814</v>
+        <v>37</v>
       </c>
       <c r="G41" t="n">
-        <v>13.85</v>
+        <v>13.86</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C42" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D42" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E42" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="F42" t="n">
-        <v>9997.638000000001</v>
+        <v>3028.1814</v>
       </c>
       <c r="G42" t="n">
-        <v>13.83666666666667</v>
+        <v>13.85</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C43" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D43" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E43" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F43" t="n">
-        <v>46</v>
+        <v>9997.638000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>13.825</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>13.6</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G44" t="n">
-        <v>13.81333333333334</v>
+        <v>13.825</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>13.6</v>
       </c>
       <c r="C45" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D45" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E45" t="n">
         <v>13.6</v>
       </c>
       <c r="F45" t="n">
-        <v>18.136</v>
+        <v>28</v>
       </c>
       <c r="G45" t="n">
-        <v>13.80333333333334</v>
+        <v>13.81333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>13.6</v>
       </c>
       <c r="C46" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D46" t="n">
         <v>13.6</v>
       </c>
       <c r="E46" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F46" t="n">
-        <v>5099.864</v>
+        <v>18.136</v>
       </c>
       <c r="G46" t="n">
-        <v>13.79333333333334</v>
+        <v>13.80333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C47" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E47" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F47" t="n">
-        <v>555.4814</v>
+        <v>5099.864</v>
       </c>
       <c r="G47" t="n">
-        <v>13.78166666666667</v>
+        <v>13.79333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>13.5</v>
       </c>
       <c r="C48" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D48" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E48" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F48" t="n">
-        <v>43703.006</v>
+        <v>555.4814</v>
       </c>
       <c r="G48" t="n">
-        <v>13.77166666666667</v>
+        <v>13.78166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C49" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D49" t="n">
         <v>13.6</v>
       </c>
       <c r="E49" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F49" t="n">
-        <v>18.1814</v>
+        <v>43703.006</v>
       </c>
       <c r="G49" t="n">
-        <v>13.765</v>
+        <v>13.77166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E50" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F50" t="n">
-        <v>18</v>
+        <v>18.1814</v>
       </c>
       <c r="G50" t="n">
-        <v>13.75166666666667</v>
+        <v>13.765</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C51" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D51" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E51" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F51" t="n">
-        <v>15110</v>
+        <v>18</v>
       </c>
       <c r="G51" t="n">
-        <v>13.73666666666667</v>
+        <v>13.75166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C52" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D52" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E52" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1527.1814</v>
+        <v>15110</v>
       </c>
       <c r="G52" t="n">
-        <v>13.72666666666667</v>
+        <v>13.73666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C53" t="n">
         <v>13.6</v>
       </c>
       <c r="D53" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E53" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F53" t="n">
-        <v>60.8186</v>
+        <v>1527.1814</v>
       </c>
       <c r="G53" t="n">
-        <v>13.71666666666667</v>
+        <v>13.72666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>13.6</v>
       </c>
       <c r="C54" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D54" t="n">
         <v>13.7</v>
@@ -2265,10 +2265,10 @@
         <v>13.6</v>
       </c>
       <c r="F54" t="n">
-        <v>20</v>
+        <v>60.8186</v>
       </c>
       <c r="G54" t="n">
-        <v>13.715</v>
+        <v>13.71666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C55" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D55" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E55" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>13.70666666666667</v>
+        <v>13.715</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C56" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="D56" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E56" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="n">
-        <v>13.705</v>
+        <v>13.70666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>13.6</v>
       </c>
       <c r="C57" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D57" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E57" t="n">
         <v>13.6</v>
       </c>
       <c r="F57" t="n">
-        <v>18.1836</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>13.70166666666667</v>
+        <v>13.705</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E58" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>18.1836</v>
       </c>
       <c r="G58" t="n">
-        <v>13.69333333333334</v>
+        <v>13.70166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E59" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1459.684</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>13.68333333333334</v>
+        <v>13.69333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C60" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D60" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E60" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F60" t="n">
-        <v>120.4972</v>
+        <v>1459.684</v>
       </c>
       <c r="G60" t="n">
-        <v>13.67833333333334</v>
+        <v>13.68333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>13.5</v>
       </c>
       <c r="C61" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D61" t="n">
         <v>13.7</v>
       </c>
       <c r="E61" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>120.4972</v>
       </c>
       <c r="G61" t="n">
-        <v>13.67333333333334</v>
+        <v>13.67833333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>13.5</v>
       </c>
       <c r="C62" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D62" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E62" t="n">
         <v>13.5</v>
       </c>
       <c r="F62" t="n">
-        <v>18.1812</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>13.66666666666667</v>
+        <v>13.67333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>18.1812</v>
       </c>
       <c r="G63" t="n">
-        <v>13.66333333333334</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>13.6</v>
       </c>
       <c r="C64" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D64" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E64" t="n">
         <v>13.6</v>
       </c>
       <c r="F64" t="n">
-        <v>58352.5547</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>13.66000000000001</v>
+        <v>13.66333333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>13.6</v>
       </c>
       <c r="F65" t="n">
-        <v>3500</v>
+        <v>58352.5547</v>
       </c>
       <c r="G65" t="n">
-        <v>13.65666666666668</v>
+        <v>13.66000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C66" t="n">
         <v>13.7</v>
@@ -2682,13 +2682,13 @@
         <v>13.7</v>
       </c>
       <c r="E66" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F66" t="n">
-        <v>43370.3649</v>
+        <v>3500</v>
       </c>
       <c r="G66" t="n">
-        <v>13.65000000000001</v>
+        <v>13.65666666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>13.7</v>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>43370.3649</v>
       </c>
       <c r="G67" t="n">
-        <v>13.64500000000001</v>
+        <v>13.65000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>13.7</v>
       </c>
       <c r="F68" t="n">
-        <v>6021.4671</v>
+        <v>500</v>
       </c>
       <c r="G68" t="n">
-        <v>13.64000000000001</v>
+        <v>13.64500000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>13.7</v>
       </c>
       <c r="F69" t="n">
-        <v>1467.0072</v>
+        <v>6021.4671</v>
       </c>
       <c r="G69" t="n">
-        <v>13.63666666666668</v>
+        <v>13.64000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>13.7</v>
       </c>
       <c r="F70" t="n">
-        <v>65287.9562</v>
+        <v>1467.0072</v>
       </c>
       <c r="G70" t="n">
-        <v>13.63500000000001</v>
+        <v>13.63666666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>13.7</v>
       </c>
       <c r="F71" t="n">
-        <v>72.99270072992701</v>
+        <v>65287.9562</v>
       </c>
       <c r="G71" t="n">
         <v>13.63500000000001</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E72" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F72" t="n">
-        <v>38621.8381</v>
+        <v>72.99270072992701</v>
       </c>
       <c r="G72" t="n">
-        <v>13.62833333333335</v>
+        <v>13.63500000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>13.6</v>
       </c>
       <c r="C73" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D73" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E73" t="n">
         <v>13.6</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>38621.8381</v>
       </c>
       <c r="G73" t="n">
-        <v>13.62333333333335</v>
+        <v>13.62833333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C74" t="n">
         <v>13.7</v>
@@ -2962,13 +2962,13 @@
         <v>13.7</v>
       </c>
       <c r="E74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>13.62833333333335</v>
+        <v>13.62333333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,19 +2988,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C75" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D75" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E75" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="F75" t="n">
-        <v>197478.3022</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
         <v>13.62833333333335</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C76" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D76" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E76" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F76" t="n">
-        <v>70</v>
+        <v>197478.3022</v>
       </c>
       <c r="G76" t="n">
-        <v>13.62500000000002</v>
+        <v>13.62833333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,16 +3061,16 @@
         <v>13.4</v>
       </c>
       <c r="C77" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="D77" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E77" t="n">
         <v>13.4</v>
       </c>
-      <c r="E77" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F77" t="n">
-        <v>46097.9503</v>
+        <v>70</v>
       </c>
       <c r="G77" t="n">
         <v>13.62500000000002</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C78" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D78" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E78" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F78" t="n">
-        <v>17376.6737</v>
+        <v>46097.9503</v>
       </c>
       <c r="G78" t="n">
-        <v>13.62333333333335</v>
+        <v>13.62500000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="C79" t="n">
         <v>13.5</v>
@@ -3137,13 +3137,13 @@
         <v>13.5</v>
       </c>
       <c r="E79" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F79" t="n">
-        <v>8.1812</v>
+        <v>17376.6737</v>
       </c>
       <c r="G79" t="n">
-        <v>13.62166666666668</v>
+        <v>13.62333333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>13.5</v>
       </c>
       <c r="F80" t="n">
-        <v>14232.9299</v>
+        <v>8.1812</v>
       </c>
       <c r="G80" t="n">
         <v>13.62166666666668</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C81" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D81" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E81" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F81" t="n">
-        <v>987.2649</v>
+        <v>14232.9299</v>
       </c>
       <c r="G81" t="n">
-        <v>13.62000000000002</v>
+        <v>13.62166666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>13.3</v>
       </c>
       <c r="F82" t="n">
-        <v>98.6131</v>
+        <v>987.2649</v>
       </c>
       <c r="G82" t="n">
-        <v>13.61666666666668</v>
+        <v>13.62000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C83" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D83" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E83" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F83" t="n">
-        <v>7938.407129927007</v>
+        <v>98.6131</v>
       </c>
       <c r="G83" t="n">
-        <v>13.61500000000002</v>
+        <v>13.61666666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C84" t="n">
         <v>13.7</v>
@@ -3312,10 +3312,10 @@
         <v>13.7</v>
       </c>
       <c r="E84" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F84" t="n">
-        <v>38063.6496</v>
+        <v>7938.407129927007</v>
       </c>
       <c r="G84" t="n">
         <v>13.61500000000002</v>
@@ -3350,10 +3350,10 @@
         <v>13.7</v>
       </c>
       <c r="F85" t="n">
-        <v>9210.21897810219</v>
+        <v>38063.6496</v>
       </c>
       <c r="G85" t="n">
-        <v>13.60833333333335</v>
+        <v>13.61500000000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C86" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="D86" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E86" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="F86" t="n">
-        <v>566</v>
+        <v>9210.21897810219</v>
       </c>
       <c r="G86" t="n">
-        <v>13.59666666666669</v>
+        <v>13.60833333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C87" t="n">
         <v>13.4</v>
       </c>
       <c r="D87" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E87" t="n">
         <v>13.4</v>
       </c>
       <c r="F87" t="n">
-        <v>9279.7358</v>
+        <v>566</v>
       </c>
       <c r="G87" t="n">
-        <v>13.58666666666668</v>
+        <v>13.59666666666669</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C88" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D88" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E88" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F88" t="n">
-        <v>103210.9539</v>
+        <v>9279.7358</v>
       </c>
       <c r="G88" t="n">
-        <v>13.58000000000002</v>
+        <v>13.58666666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C89" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D89" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E89" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>103210.9539</v>
       </c>
       <c r="G89" t="n">
-        <v>13.57500000000002</v>
+        <v>13.58000000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C90" t="n">
         <v>13.6</v>
@@ -3522,13 +3522,13 @@
         <v>13.6</v>
       </c>
       <c r="E90" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="F90" t="n">
-        <v>2589.1635</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>13.56666666666669</v>
+        <v>13.57500000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>13.5</v>
       </c>
       <c r="C91" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D91" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E91" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F91" t="n">
-        <v>146300.0729</v>
+        <v>2589.1635</v>
       </c>
       <c r="G91" t="n">
-        <v>13.57166666666669</v>
+        <v>13.56666666666669</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C92" t="n">
         <v>13.7</v>
@@ -3592,13 +3592,13 @@
         <v>13.7</v>
       </c>
       <c r="E92" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>146300.0729</v>
       </c>
       <c r="G92" t="n">
-        <v>13.57333333333335</v>
+        <v>13.57166666666669</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>13.7</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G93" t="n">
-        <v>13.57666666666669</v>
+        <v>13.57333333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>13.7</v>
       </c>
       <c r="F94" t="n">
-        <v>72.99270072992701</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>13.58333333333336</v>
+        <v>13.57666666666669</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="C95" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D95" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="E95" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="F95" t="n">
-        <v>269.7574</v>
+        <v>72.99270072992701</v>
       </c>
       <c r="G95" t="n">
-        <v>13.57666666666669</v>
+        <v>13.58333333333336</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C96" t="n">
         <v>13.3</v>
       </c>
-      <c r="C96" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D96" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="E96" t="n">
         <v>13.3</v>
       </c>
       <c r="F96" t="n">
-        <v>3076</v>
+        <v>269.7574</v>
       </c>
       <c r="G96" t="n">
-        <v>13.58166666666669</v>
+        <v>13.57666666666669</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C97" t="n">
         <v>13.6</v>
@@ -3770,10 +3770,10 @@
         <v>13.3</v>
       </c>
       <c r="F97" t="n">
-        <v>22609.9266</v>
+        <v>3076</v>
       </c>
       <c r="G97" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58166666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>13.6</v>
       </c>
       <c r="D98" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E98" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F98" t="n">
-        <v>30</v>
+        <v>22609.9266</v>
       </c>
       <c r="G98" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>13.5</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>13.58833333333336</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C100" t="n">
         <v>13.6</v>
@@ -3872,13 +3872,13 @@
         <v>13.6</v>
       </c>
       <c r="E100" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F100" t="n">
-        <v>1868.7286</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58833333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C101" t="n">
         <v>13.6</v>
@@ -3907,13 +3907,13 @@
         <v>13.6</v>
       </c>
       <c r="E101" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F101" t="n">
-        <v>8278.2714</v>
+        <v>1868.7286</v>
       </c>
       <c r="G101" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C102" t="n">
         <v>13.6</v>
@@ -3942,10 +3942,10 @@
         <v>13.6</v>
       </c>
       <c r="E102" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F102" t="n">
-        <v>4486.4852</v>
+        <v>8278.2714</v>
       </c>
       <c r="G102" t="n">
         <v>13.58500000000002</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C103" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D103" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E103" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F103" t="n">
-        <v>18.6015</v>
+        <v>4486.4852</v>
       </c>
       <c r="G103" t="n">
-        <v>13.58000000000002</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>13.4</v>
       </c>
       <c r="C104" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D104" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E104" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F104" t="n">
-        <v>20243.00133455882</v>
+        <v>18.6015</v>
       </c>
       <c r="G104" t="n">
-        <v>13.57333333333335</v>
+        <v>13.58000000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,19 +4038,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C105" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D105" t="n">
         <v>13.6</v>
       </c>
       <c r="E105" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>20243.00133455882</v>
       </c>
       <c r="G105" t="n">
         <v>13.57333333333335</v>
@@ -4088,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>13.57666666666669</v>
+        <v>13.57333333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>13.6</v>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>13.57833333333335</v>
+        <v>13.57666666666669</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>13.6</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>13.58166666666669</v>
+        <v>13.57833333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>13.6</v>
       </c>
       <c r="F109" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
         <v>13.58166666666669</v>
@@ -4225,10 +4225,10 @@
         <v>13.6</v>
       </c>
       <c r="F110" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G110" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58166666666669</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>13.6</v>
       </c>
       <c r="C111" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D111" t="n">
         <v>13.6</v>
       </c>
       <c r="E111" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F111" t="n">
-        <v>444.4082</v>
+        <v>72</v>
       </c>
       <c r="G111" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,16 +4286,16 @@
         <v>13.6</v>
       </c>
       <c r="C112" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D112" t="n">
         <v>13.6</v>
       </c>
       <c r="E112" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>444.4082</v>
       </c>
       <c r="G112" t="n">
         <v>13.58666666666669</v>
@@ -4330,7 +4330,7 @@
         <v>13.6</v>
       </c>
       <c r="F113" t="n">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
         <v>13.58666666666669</v>
@@ -4365,10 +4365,10 @@
         <v>13.6</v>
       </c>
       <c r="F114" t="n">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="G114" t="n">
-        <v>13.58500000000002</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>13.6</v>
       </c>
       <c r="F115" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G115" t="n">
-        <v>13.59000000000002</v>
+        <v>13.58500000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>13.6</v>
       </c>
       <c r="F116" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G116" t="n">
-        <v>13.58833333333336</v>
+        <v>13.59000000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>13.6</v>
       </c>
       <c r="F117" t="n">
-        <v>2873.8235</v>
+        <v>66</v>
       </c>
       <c r="G117" t="n">
         <v>13.58833333333336</v>
@@ -4493,7 +4493,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C118" t="n">
         <v>13.6</v>
@@ -4502,13 +4502,13 @@
         <v>13.6</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F118" t="n">
-        <v>28.1812</v>
+        <v>2873.8235</v>
       </c>
       <c r="G118" t="n">
-        <v>13.58666666666669</v>
+        <v>13.58833333333336</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>13.5</v>
       </c>
       <c r="C119" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D119" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E119" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F119" t="n">
-        <v>27648.0652</v>
+        <v>28.1812</v>
       </c>
       <c r="G119" t="n">
-        <v>13.58333333333336</v>
+        <v>13.58666666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C120" t="n">
         <v>13.4</v>
       </c>
-      <c r="C120" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D120" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E120" t="n">
         <v>13.4</v>
       </c>
-      <c r="E120" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F120" t="n">
-        <v>269256.4243</v>
+        <v>27648.0652</v>
       </c>
       <c r="G120" t="n">
-        <v>13.58000000000002</v>
+        <v>13.58333333333336</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C121" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D121" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E121" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F121" t="n">
-        <v>75471.6333</v>
+        <v>269256.4243</v>
       </c>
       <c r="G121" t="n">
-        <v>13.57166666666669</v>
+        <v>13.58000000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E122" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F122" t="n">
-        <v>7518.7969</v>
+        <v>75471.6333</v>
       </c>
       <c r="G122" t="n">
-        <v>13.56833333333335</v>
+        <v>13.57166666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>13.3</v>
       </c>
       <c r="C123" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D123" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E123" t="n">
         <v>13.3</v>
       </c>
       <c r="F123" t="n">
-        <v>142686.5059656716</v>
+        <v>7518.7969</v>
       </c>
       <c r="G123" t="n">
-        <v>13.56500000000002</v>
+        <v>13.56833333333335</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C124" t="n">
         <v>13.4</v>
       </c>
-      <c r="C124" t="n">
-        <v>13.5</v>
-      </c>
       <c r="D124" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E124" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F124" t="n">
-        <v>158504.6100343284</v>
+        <v>142686.5059656716</v>
       </c>
       <c r="G124" t="n">
-        <v>13.56166666666669</v>
+        <v>13.56500000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C125" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D125" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E125" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>158504.6100343284</v>
       </c>
       <c r="G125" t="n">
-        <v>13.56000000000002</v>
+        <v>13.56166666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E126" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F126" t="n">
-        <v>141.6666</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>13.55666666666668</v>
+        <v>13.56000000000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>13.5</v>
       </c>
       <c r="F127" t="n">
-        <v>44</v>
+        <v>141.6666</v>
       </c>
       <c r="G127" t="n">
-        <v>13.55333333333335</v>
+        <v>13.55666666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C128" t="n">
         <v>13.5</v>
@@ -4852,13 +4852,13 @@
         <v>13.5</v>
       </c>
       <c r="E128" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F128" t="n">
-        <v>306785.1839</v>
+        <v>44</v>
       </c>
       <c r="G128" t="n">
-        <v>13.55000000000002</v>
+        <v>13.55333333333335</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +4881,19 @@
         <v>13.4</v>
       </c>
       <c r="C129" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D129" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E129" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F129" t="n">
-        <v>44</v>
+        <v>306785.1839</v>
       </c>
       <c r="G129" t="n">
-        <v>13.54500000000002</v>
+        <v>13.55000000000002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4919,16 +4919,16 @@
         <v>13.4</v>
       </c>
       <c r="D130" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E130" t="n">
         <v>13.4</v>
       </c>
       <c r="F130" t="n">
-        <v>5933.028</v>
+        <v>44</v>
       </c>
       <c r="G130" t="n">
-        <v>13.54000000000002</v>
+        <v>13.54500000000002</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C131" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D131" t="n">
         <v>13.5</v>
       </c>
       <c r="E131" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>5933.028</v>
       </c>
       <c r="G131" t="n">
-        <v>13.53666666666668</v>
+        <v>13.54000000000002</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E132" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F132" t="n">
-        <v>75670.03170000001</v>
+        <v>20</v>
       </c>
       <c r="G132" t="n">
-        <v>13.53333333333335</v>
+        <v>13.53666666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E133" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F133" t="n">
-        <v>1000</v>
+        <v>75670.03170000001</v>
       </c>
       <c r="G133" t="n">
-        <v>13.52666666666668</v>
+        <v>13.53333333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="E134" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F134" t="n">
-        <v>35504.88390073529</v>
+        <v>1000</v>
       </c>
       <c r="G134" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C135" t="n">
         <v>13.6</v>
@@ -5097,13 +5097,13 @@
         <v>13.6</v>
       </c>
       <c r="E135" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>35504.88390073529</v>
       </c>
       <c r="G135" t="n">
-        <v>13.53000000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5126,19 @@
         <v>13.6</v>
       </c>
       <c r="C136" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D136" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E136" t="n">
         <v>13.6</v>
       </c>
       <c r="F136" t="n">
-        <v>2599.428664705883</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>13.53166666666668</v>
+        <v>13.53000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>13.6</v>
       </c>
       <c r="F137" t="n">
-        <v>28244.2477</v>
+        <v>2599.428664705883</v>
       </c>
       <c r="G137" t="n">
-        <v>13.53833333333335</v>
+        <v>13.53166666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5196,19 @@
         <v>13.6</v>
       </c>
       <c r="C138" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D138" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E138" t="n">
         <v>13.6</v>
       </c>
       <c r="F138" t="n">
-        <v>75000.00003529411</v>
+        <v>28244.2477</v>
       </c>
       <c r="G138" t="n">
-        <v>13.54000000000002</v>
+        <v>13.53833333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E139" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>75000.00003529411</v>
       </c>
       <c r="G139" t="n">
-        <v>13.54333333333335</v>
+        <v>13.54000000000002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E140" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F140" t="n">
-        <v>3566.6176</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>13.54500000000002</v>
+        <v>13.54333333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>13.6</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3566.6176</v>
       </c>
       <c r="G141" t="n">
         <v>13.54500000000002</v>
@@ -5380,10 +5380,10 @@
         <v>13.6</v>
       </c>
       <c r="F143" t="n">
-        <v>5658.7073</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>13.54333333333335</v>
+        <v>13.54500000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,19 +5403,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E144" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F144" t="n">
-        <v>88.23520000000001</v>
+        <v>5658.7073</v>
       </c>
       <c r="G144" t="n">
         <v>13.54333333333335</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E145" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F145" t="n">
-        <v>54397.6162</v>
+        <v>88.23520000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>13.54166666666668</v>
+        <v>13.54333333333335</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E146" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>54397.6162</v>
       </c>
       <c r="G146" t="n">
-        <v>13.54666666666668</v>
+        <v>13.54166666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>13.7</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G147" t="n">
-        <v>13.55166666666668</v>
+        <v>13.54666666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>13.7</v>
       </c>
       <c r="F148" t="n">
-        <v>72.99270072992701</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>13.55500000000002</v>
+        <v>13.55166666666668</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>13.7</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>72.99270072992701</v>
       </c>
       <c r="G149" t="n">
-        <v>13.55666666666668</v>
+        <v>13.55500000000002</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E150" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F150" t="n">
-        <v>35416.1217</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>13.55500000000002</v>
+        <v>13.55666666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,19 +5648,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E151" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>35416.1217</v>
       </c>
       <c r="G151" t="n">
         <v>13.55500000000002</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E155" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F155" t="n">
-        <v>36785.6617</v>
+        <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>13.56000000000002</v>
+        <v>13.55500000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F156" t="n">
-        <v>40620.3966</v>
+        <v>36785.6617</v>
       </c>
       <c r="G156" t="n">
-        <v>13.55833333333335</v>
+        <v>13.56000000000002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5861,19 @@
         <v>13.5</v>
       </c>
       <c r="C157" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D157" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E157" t="n">
         <v>13.5</v>
       </c>
       <c r="F157" t="n">
-        <v>105698.5773</v>
+        <v>40620.3966</v>
       </c>
       <c r="G157" t="n">
-        <v>13.56000000000002</v>
+        <v>13.55833333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C158" t="n">
         <v>13.7</v>
@@ -5902,13 +5902,13 @@
         <v>13.7</v>
       </c>
       <c r="E158" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F158" t="n">
-        <v>65148.28979927007</v>
+        <v>105698.5773</v>
       </c>
       <c r="G158" t="n">
-        <v>13.56166666666669</v>
+        <v>13.56000000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>13.7</v>
       </c>
       <c r="F159" t="n">
-        <v>88.23520000000001</v>
+        <v>65148.28979927007</v>
       </c>
       <c r="G159" t="n">
-        <v>13.56333333333335</v>
+        <v>13.56166666666669</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E160" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F160" t="n">
-        <v>44</v>
+        <v>88.23520000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>13.56666666666669</v>
+        <v>13.56333333333335</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E161" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F161" t="n">
-        <v>30000</v>
+        <v>44</v>
       </c>
       <c r="G161" t="n">
-        <v>13.56833333333335</v>
+        <v>13.56666666666669</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E162" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F162" t="n">
-        <v>570.7246376811594</v>
+        <v>30000</v>
       </c>
       <c r="G162" t="n">
-        <v>13.57166666666668</v>
+        <v>13.56833333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>13.8</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>570.7246376811594</v>
       </c>
       <c r="G163" t="n">
-        <v>13.57833333333335</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>13.8</v>
       </c>
       <c r="F164" t="n">
-        <v>50526.7391</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>13.58666666666668</v>
+        <v>13.57833333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E165" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F165" t="n">
-        <v>67545.5604</v>
+        <v>50526.7391</v>
       </c>
       <c r="G165" t="n">
-        <v>13.58833333333335</v>
+        <v>13.58666666666668</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>13.7</v>
       </c>
       <c r="F166" t="n">
-        <v>17477.6278</v>
+        <v>67545.5604</v>
       </c>
       <c r="G166" t="n">
-        <v>13.59000000000002</v>
+        <v>13.58833333333335</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E167" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>17477.6278</v>
       </c>
       <c r="G167" t="n">
-        <v>13.59333333333335</v>
+        <v>13.59000000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>13.8</v>
       </c>
       <c r="F168" t="n">
-        <v>7910.7753</v>
+        <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>13.59666666666668</v>
+        <v>13.59333333333335</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6290,10 @@
         <v>13.8</v>
       </c>
       <c r="F169" t="n">
-        <v>10</v>
+        <v>7910.7753</v>
       </c>
       <c r="G169" t="n">
-        <v>13.60000000000002</v>
+        <v>13.59666666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         <v>13.8</v>
       </c>
       <c r="F170" t="n">
-        <v>36166.5217</v>
+        <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>13.60333333333335</v>
+        <v>13.60000000000002</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>13.8</v>
       </c>
       <c r="F171" t="n">
-        <v>48293.00476231884</v>
+        <v>36166.5217</v>
       </c>
       <c r="G171" t="n">
-        <v>13.61000000000001</v>
+        <v>13.60333333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E172" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>48293.00476231884</v>
       </c>
       <c r="G172" t="n">
-        <v>13.61500000000001</v>
+        <v>13.61000000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>13.9</v>
       </c>
       <c r="F173" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>13.62000000000001</v>
+        <v>13.61500000000001</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E174" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F174" t="n">
-        <v>395.6268</v>
+        <v>20</v>
       </c>
       <c r="G174" t="n">
-        <v>13.62333333333334</v>
+        <v>13.62000000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C175" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="D175" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E175" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F175" t="n">
-        <v>70965.98579999999</v>
+        <v>395.6268</v>
       </c>
       <c r="G175" t="n">
-        <v>13.63166666666668</v>
+        <v>13.62333333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C176" t="n">
         <v>14.1</v>
@@ -6532,13 +6532,13 @@
         <v>14.1</v>
       </c>
       <c r="E176" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F176" t="n">
-        <v>22</v>
+        <v>70965.98579999999</v>
       </c>
       <c r="G176" t="n">
-        <v>13.64000000000001</v>
+        <v>13.63166666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C177" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="D177" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E177" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="F177" t="n">
-        <v>3557.701</v>
+        <v>22</v>
       </c>
       <c r="G177" t="n">
-        <v>13.64500000000001</v>
+        <v>13.64000000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C178" t="n">
         <v>13.9</v>
       </c>
       <c r="D178" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E178" t="n">
         <v>13.9</v>
       </c>
       <c r="F178" t="n">
-        <v>857.812</v>
+        <v>3557.701</v>
       </c>
       <c r="G178" t="n">
-        <v>13.65000000000001</v>
+        <v>13.64500000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,28 +6628,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E179" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F179" t="n">
-        <v>212.2857</v>
+        <v>857.812</v>
       </c>
       <c r="G179" t="n">
-        <v>13.66000000000001</v>
+        <v>13.65000000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -6675,16 +6675,16 @@
         <v>14</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>212.2857</v>
       </c>
       <c r="G180" t="n">
-        <v>13.67166666666668</v>
+        <v>13.66000000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -6713,7 +6713,7 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>13.68500000000001</v>
+        <v>13.67166666666668</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>14</v>
       </c>
       <c r="F182" t="n">
-        <v>19669.6463</v>
+        <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>13.69666666666668</v>
+        <v>13.68500000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,28 +6768,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E183" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>19669.6463</v>
       </c>
       <c r="G183" t="n">
-        <v>13.70833333333334</v>
+        <v>13.69666666666668</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E184" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F184" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>13.71666666666668</v>
+        <v>13.70833333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F185" t="n">
-        <v>11</v>
+        <v>10000</v>
       </c>
       <c r="G185" t="n">
-        <v>13.72500000000001</v>
+        <v>13.71666666666668</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,19 +6873,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C186" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="D186" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E186" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="F186" t="n">
-        <v>279900</v>
+        <v>11</v>
       </c>
       <c r="G186" t="n">
         <v>13.72500000000001</v>
@@ -6911,19 +6911,19 @@
         <v>14</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="D187" t="n">
         <v>14</v>
       </c>
       <c r="E187" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F187" t="n">
-        <v>11</v>
+        <v>279900</v>
       </c>
       <c r="G187" t="n">
-        <v>13.73333333333334</v>
+        <v>13.72500000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="C188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E188" t="n">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="F188" t="n">
-        <v>236435</v>
+        <v>11</v>
       </c>
       <c r="G188" t="n">
-        <v>13.74000000000001</v>
+        <v>13.73333333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C189" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="D189" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E189" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>236435</v>
       </c>
       <c r="G189" t="n">
-        <v>13.74500000000001</v>
+        <v>13.74000000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C190" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D190" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E190" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>13.74833333333335</v>
+        <v>13.74500000000001</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C191" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D191" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E191" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F191" t="n">
-        <v>14204.705</v>
+        <v>54</v>
       </c>
       <c r="G191" t="n">
-        <v>13.75166666666668</v>
+        <v>13.74833333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E192" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F192" t="n">
-        <v>4694.8015</v>
+        <v>14204.705</v>
       </c>
       <c r="G192" t="n">
-        <v>13.75833333333335</v>
+        <v>13.75166666666668</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>13.8</v>
       </c>
       <c r="F193" t="n">
-        <v>1165.9467</v>
+        <v>4694.8015</v>
       </c>
       <c r="G193" t="n">
-        <v>13.76666666666668</v>
+        <v>13.75833333333335</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>13.8</v>
       </c>
       <c r="F194" t="n">
-        <v>8632.0054</v>
+        <v>1165.9467</v>
       </c>
       <c r="G194" t="n">
-        <v>13.77000000000001</v>
+        <v>13.76666666666668</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E195" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F195" t="n">
-        <v>11</v>
+        <v>8632.0054</v>
       </c>
       <c r="G195" t="n">
-        <v>13.77166666666668</v>
+        <v>13.77000000000001</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E196" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F196" t="n">
-        <v>9313.262000000001</v>
+        <v>11</v>
       </c>
       <c r="G196" t="n">
-        <v>13.77000000000001</v>
+        <v>13.77166666666668</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         <v>13.6</v>
       </c>
       <c r="F197" t="n">
-        <v>1980</v>
+        <v>9313.262000000001</v>
       </c>
       <c r="G197" t="n">
-        <v>13.76833333333335</v>
+        <v>13.77000000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E198" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F198" t="n">
-        <v>11</v>
+        <v>1980</v>
       </c>
       <c r="G198" t="n">
-        <v>13.77000000000001</v>
+        <v>13.76833333333335</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7340,7 +7340,7 @@
         <v>13.7</v>
       </c>
       <c r="F199" t="n">
-        <v>22198.2887</v>
+        <v>11</v>
       </c>
       <c r="G199" t="n">
         <v>13.77000000000001</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E200" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>22198.2887</v>
       </c>
       <c r="G200" t="n">
-        <v>13.77333333333334</v>
+        <v>13.77000000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>13.8</v>
       </c>
       <c r="F201" t="n">
-        <v>68435.7246</v>
+        <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>13.77666666666668</v>
+        <v>13.77333333333334</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7445,10 +7445,10 @@
         <v>13.8</v>
       </c>
       <c r="F202" t="n">
-        <v>4038.8768</v>
+        <v>68435.7246</v>
       </c>
       <c r="G202" t="n">
-        <v>13.78000000000001</v>
+        <v>13.77666666666668</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E203" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>4038.8768</v>
       </c>
       <c r="G203" t="n">
-        <v>13.78500000000001</v>
+        <v>13.78000000000001</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>13.9</v>
       </c>
       <c r="F204" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>13.78833333333334</v>
+        <v>13.78500000000001</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E205" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F205" t="n">
-        <v>44.4444</v>
+        <v>50000</v>
       </c>
       <c r="G205" t="n">
-        <v>13.79166666666667</v>
+        <v>13.78833333333334</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         <v>13.8</v>
       </c>
       <c r="F206" t="n">
-        <v>40613.9613</v>
+        <v>44.4444</v>
       </c>
       <c r="G206" t="n">
-        <v>13.79333333333334</v>
+        <v>13.79166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>13.8</v>
       </c>
       <c r="F207" t="n">
-        <v>444.4444</v>
+        <v>40613.9613</v>
       </c>
       <c r="G207" t="n">
-        <v>13.795</v>
+        <v>13.79333333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,19 +7643,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E208" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F208" t="n">
-        <v>34808.8288</v>
+        <v>444.4444</v>
       </c>
       <c r="G208" t="n">
         <v>13.795</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E209" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F209" t="n">
-        <v>60</v>
+        <v>34808.8288</v>
       </c>
       <c r="G209" t="n">
-        <v>13.79666666666667</v>
+        <v>13.795</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7716,19 +7716,19 @@
         <v>13.8</v>
       </c>
       <c r="C210" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D210" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E210" t="n">
         <v>13.8</v>
       </c>
       <c r="F210" t="n">
-        <v>2206.0425</v>
+        <v>60</v>
       </c>
       <c r="G210" t="n">
-        <v>13.80333333333333</v>
+        <v>13.79666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C211" t="n">
         <v>13.9</v>
       </c>
-      <c r="C211" t="n">
-        <v>14.1</v>
-      </c>
       <c r="D211" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E211" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F211" t="n">
-        <v>85235.8855</v>
+        <v>2206.0425</v>
       </c>
       <c r="G211" t="n">
-        <v>13.81</v>
+        <v>13.80333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C212" t="n">
         <v>14.1</v>
@@ -7792,13 +7792,13 @@
         <v>14.1</v>
       </c>
       <c r="E212" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F212" t="n">
-        <v>133873.1098</v>
+        <v>85235.8855</v>
       </c>
       <c r="G212" t="n">
-        <v>13.81666666666667</v>
+        <v>13.81</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,10 +7830,10 @@
         <v>14.1</v>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>133873.1098</v>
       </c>
       <c r="G213" t="n">
-        <v>13.82333333333333</v>
+        <v>13.81666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7865,10 +7865,10 @@
         <v>14.1</v>
       </c>
       <c r="F214" t="n">
-        <v>15416.7461</v>
+        <v>10</v>
       </c>
       <c r="G214" t="n">
-        <v>13.83</v>
+        <v>13.82333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7891,19 +7891,19 @@
         <v>14.1</v>
       </c>
       <c r="C215" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D215" t="n">
         <v>14.1</v>
       </c>
       <c r="E215" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F215" t="n">
-        <v>104095.8497</v>
+        <v>15416.7461</v>
       </c>
       <c r="G215" t="n">
-        <v>13.83666666666667</v>
+        <v>13.83</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C216" t="n">
         <v>14</v>
       </c>
-      <c r="C216" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D216" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E216" t="n">
         <v>14</v>
       </c>
-      <c r="E216" t="n">
-        <v>13.8</v>
-      </c>
       <c r="F216" t="n">
-        <v>136635.004</v>
+        <v>104095.8497</v>
       </c>
       <c r="G216" t="n">
-        <v>13.84166666666667</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="C217" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="D217" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="E217" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="F217" t="n">
-        <v>10</v>
+        <v>136635.004</v>
       </c>
       <c r="G217" t="n">
-        <v>13.85</v>
+        <v>13.84166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E218" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="F218" t="n">
-        <v>2132.695</v>
+        <v>10</v>
       </c>
       <c r="G218" t="n">
-        <v>13.85666666666666</v>
+        <v>13.85</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="D219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="E219" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="F219" t="n">
-        <v>4444.4444</v>
+        <v>2132.695</v>
       </c>
       <c r="G219" t="n">
-        <v>13.86</v>
+        <v>13.85666666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="D220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E220" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="F220" t="n">
-        <v>46034.6932</v>
+        <v>4444.4444</v>
       </c>
       <c r="G220" t="n">
-        <v>13.85833333333333</v>
+        <v>13.86</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8101,19 +8101,19 @@
         <v>13.7</v>
       </c>
       <c r="C221" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D221" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="E221" t="n">
         <v>13.7</v>
       </c>
       <c r="F221" t="n">
-        <v>5010</v>
+        <v>46034.6932</v>
       </c>
       <c r="G221" t="n">
-        <v>13.86166666666666</v>
+        <v>13.85833333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8142,13 +8142,13 @@
         <v>13.9</v>
       </c>
       <c r="E222" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="F222" t="n">
-        <v>299920</v>
+        <v>5010</v>
       </c>
       <c r="G222" t="n">
-        <v>13.86333333333333</v>
+        <v>13.86166666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C223" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="E223" t="n">
         <v>13.4</v>
       </c>
       <c r="F223" t="n">
-        <v>299900</v>
+        <v>299920</v>
       </c>
       <c r="G223" t="n">
-        <v>13.85666666666666</v>
+        <v>13.86333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8206,16 +8206,16 @@
         <v>13.5</v>
       </c>
       <c r="C224" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="D224" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E224" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F224" t="n">
-        <v>969.134</v>
+        <v>299900</v>
       </c>
       <c r="G224" t="n">
         <v>13.85666666666666</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C225" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D225" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E225" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F225" t="n">
-        <v>12</v>
+        <v>969.134</v>
       </c>
       <c r="G225" t="n">
-        <v>13.855</v>
+        <v>13.85666666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E226" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F226" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="G226" t="n">
-        <v>13.85166666666666</v>
+        <v>13.855</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E227" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F227" t="n">
-        <v>18.1822</v>
+        <v>11.97</v>
       </c>
       <c r="G227" t="n">
-        <v>13.84833333333333</v>
+        <v>13.85166666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8355,10 +8355,10 @@
         <v>13.6</v>
       </c>
       <c r="F228" t="n">
-        <v>864.5856</v>
+        <v>18.1822</v>
       </c>
       <c r="G228" t="n">
-        <v>13.845</v>
+        <v>13.84833333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="C229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="E229" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F229" t="n">
-        <v>80</v>
+        <v>864.5856</v>
       </c>
       <c r="G229" t="n">
-        <v>13.84666666666667</v>
+        <v>13.845</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="C230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="D230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="E230" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="F230" t="n">
-        <v>38692.6618</v>
+        <v>80</v>
       </c>
       <c r="G230" t="n">
-        <v>13.84333333333333</v>
+        <v>13.84666666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E231" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F231" t="n">
-        <v>10</v>
+        <v>38692.6618</v>
       </c>
       <c r="G231" t="n">
-        <v>13.84166666666667</v>
+        <v>13.84333333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E232" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F232" t="n">
-        <v>21384.3708</v>
+        <v>10</v>
       </c>
       <c r="G232" t="n">
-        <v>13.83666666666667</v>
+        <v>13.84166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8521,19 +8521,19 @@
         <v>13.6</v>
       </c>
       <c r="C233" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D233" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E233" t="n">
         <v>13.6</v>
       </c>
       <c r="F233" t="n">
-        <v>14096.5403</v>
+        <v>21384.3708</v>
       </c>
       <c r="G233" t="n">
-        <v>13.83333333333334</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8556,19 +8556,19 @@
         <v>13.6</v>
       </c>
       <c r="C234" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D234" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E234" t="n">
         <v>13.6</v>
       </c>
       <c r="F234" t="n">
-        <v>29824.8649</v>
+        <v>14096.5403</v>
       </c>
       <c r="G234" t="n">
-        <v>13.83000000000001</v>
+        <v>13.83333333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E235" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F235" t="n">
-        <v>11</v>
+        <v>29824.8649</v>
       </c>
       <c r="G235" t="n">
-        <v>13.82333333333334</v>
+        <v>13.83000000000001</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8626,19 +8626,19 @@
         <v>13.7</v>
       </c>
       <c r="C236" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D236" t="n">
         <v>13.7</v>
       </c>
       <c r="E236" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F236" t="n">
-        <v>1044</v>
+        <v>11</v>
       </c>
       <c r="G236" t="n">
-        <v>13.815</v>
+        <v>13.82333333333334</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8661,19 +8661,19 @@
         <v>13.7</v>
       </c>
       <c r="C237" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D237" t="n">
         <v>13.7</v>
       </c>
       <c r="E237" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F237" t="n">
-        <v>10</v>
+        <v>1044</v>
       </c>
       <c r="G237" t="n">
-        <v>13.81166666666667</v>
+        <v>13.815</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C238" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D238" t="n">
         <v>13.7</v>
       </c>
       <c r="E238" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F238" t="n">
-        <v>60825.3378</v>
+        <v>10</v>
       </c>
       <c r="G238" t="n">
-        <v>13.80500000000001</v>
+        <v>13.81166666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C239" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D239" t="n">
         <v>13.7</v>
       </c>
       <c r="E239" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F239" t="n">
-        <v>258344.7031</v>
+        <v>60825.3378</v>
       </c>
       <c r="G239" t="n">
-        <v>13.79333333333334</v>
+        <v>13.80500000000001</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C240" t="n">
         <v>13.3</v>
       </c>
-      <c r="C240" t="n">
-        <v>13.4</v>
-      </c>
       <c r="D240" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="E240" t="n">
         <v>13.3</v>
       </c>
       <c r="F240" t="n">
-        <v>14165.028</v>
+        <v>258344.7031</v>
       </c>
       <c r="G240" t="n">
-        <v>13.78333333333334</v>
+        <v>13.79333333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,10 +8798,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C241" t="n">
         <v>13.4</v>
-      </c>
-      <c r="C241" t="n">
-        <v>13.3</v>
       </c>
       <c r="D241" t="n">
         <v>13.4</v>
@@ -8810,10 +8810,10 @@
         <v>13.3</v>
       </c>
       <c r="F241" t="n">
-        <v>14466.5217</v>
+        <v>14165.028</v>
       </c>
       <c r="G241" t="n">
-        <v>13.77166666666667</v>
+        <v>13.78333333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8836,19 +8836,19 @@
         <v>13.4</v>
       </c>
       <c r="C242" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D242" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E242" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F242" t="n">
-        <v>14145.028</v>
+        <v>14466.5217</v>
       </c>
       <c r="G242" t="n">
-        <v>13.76333333333334</v>
+        <v>13.77166666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C243" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D243" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E243" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F243" t="n">
-        <v>2749.0495</v>
+        <v>14145.028</v>
       </c>
       <c r="G243" t="n">
-        <v>13.755</v>
+        <v>13.76333333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C244" t="n">
         <v>13.6</v>
@@ -8912,13 +8912,13 @@
         <v>13.6</v>
       </c>
       <c r="E244" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F244" t="n">
-        <v>18337.647</v>
+        <v>2749.0495</v>
       </c>
       <c r="G244" t="n">
-        <v>13.74833333333334</v>
+        <v>13.755</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C245" t="n">
         <v>13.6</v>
@@ -8947,13 +8947,13 @@
         <v>13.6</v>
       </c>
       <c r="E245" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F245" t="n">
-        <v>54</v>
+        <v>18337.647</v>
       </c>
       <c r="G245" t="n">
-        <v>13.74000000000001</v>
+        <v>13.74833333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8976,16 +8976,16 @@
         <v>13.5</v>
       </c>
       <c r="C246" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D246" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E246" t="n">
         <v>13.5</v>
       </c>
       <c r="F246" t="n">
-        <v>4393.7777</v>
+        <v>54</v>
       </c>
       <c r="G246" t="n">
         <v>13.74000000000001</v>
@@ -9008,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E247" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>4393.7777</v>
       </c>
       <c r="G247" t="n">
-        <v>13.73333333333334</v>
+        <v>13.74000000000001</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C248" t="n">
         <v>13.6</v>
@@ -9052,13 +9052,13 @@
         <v>13.6</v>
       </c>
       <c r="E248" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="F248" t="n">
-        <v>126566.2357</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>13.72833333333334</v>
+        <v>13.73333333333334</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9081,19 +9081,19 @@
         <v>13.4</v>
       </c>
       <c r="C249" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D249" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E249" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>126566.2357</v>
       </c>
       <c r="G249" t="n">
-        <v>13.72333333333334</v>
+        <v>13.72833333333334</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C250" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="D250" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E250" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="F250" t="n">
-        <v>787040.9491</v>
+        <v>10</v>
       </c>
       <c r="G250" t="n">
-        <v>13.71500000000001</v>
+        <v>13.72333333333334</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C251" t="n">
         <v>13.1</v>
       </c>
       <c r="D251" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E251" t="n">
         <v>13.1</v>
       </c>
       <c r="F251" t="n">
-        <v>10</v>
+        <v>787040.9491</v>
       </c>
       <c r="G251" t="n">
-        <v>13.70500000000001</v>
+        <v>13.71500000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9183,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C252" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D252" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E252" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F252" t="n">
-        <v>6702.6873</v>
+        <v>10</v>
       </c>
       <c r="G252" t="n">
-        <v>13.69666666666667</v>
+        <v>13.70500000000001</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9221,19 +9221,19 @@
         <v>13.2</v>
       </c>
       <c r="C253" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="D253" t="n">
         <v>13.3</v>
       </c>
       <c r="E253" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F253" t="n">
-        <v>7029.5155</v>
+        <v>6702.6873</v>
       </c>
       <c r="G253" t="n">
-        <v>13.68333333333334</v>
+        <v>13.69666666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C254" t="n">
         <v>13</v>
       </c>
       <c r="D254" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
       </c>
       <c r="F254" t="n">
-        <v>13058.5465</v>
+        <v>7029.5155</v>
       </c>
       <c r="G254" t="n">
-        <v>13.67000000000001</v>
+        <v>13.68333333333334</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9291,19 +9291,19 @@
         <v>13</v>
       </c>
       <c r="C255" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D255" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
       </c>
       <c r="F255" t="n">
-        <v>106142.571</v>
+        <v>13058.5465</v>
       </c>
       <c r="G255" t="n">
-        <v>13.66166666666667</v>
+        <v>13.67000000000001</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>13</v>
+      </c>
+      <c r="C256" t="n">
         <v>13.2</v>
       </c>
-      <c r="C256" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D256" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E256" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F256" t="n">
-        <v>56797.4521</v>
+        <v>106142.571</v>
       </c>
       <c r="G256" t="n">
-        <v>13.65666666666667</v>
+        <v>13.66166666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C257" t="n">
         <v>13.3</v>
@@ -9367,13 +9367,13 @@
         <v>13.3</v>
       </c>
       <c r="E257" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="F257" t="n">
-        <v>1223.7481</v>
+        <v>56797.4521</v>
       </c>
       <c r="G257" t="n">
-        <v>13.65166666666667</v>
+        <v>13.65666666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C258" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D258" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E258" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F258" t="n">
-        <v>1010</v>
+        <v>1223.7481</v>
       </c>
       <c r="G258" t="n">
-        <v>13.64333333333334</v>
+        <v>13.65166666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C259" t="n">
         <v>13.2</v>
@@ -9440,10 +9440,10 @@
         <v>13</v>
       </c>
       <c r="F259" t="n">
-        <v>510</v>
+        <v>1010</v>
       </c>
       <c r="G259" t="n">
-        <v>13.635</v>
+        <v>13.64333333333334</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9466,19 +9466,19 @@
         <v>13</v>
       </c>
       <c r="C260" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D260" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
       </c>
       <c r="F260" t="n">
-        <v>2500</v>
+        <v>510</v>
       </c>
       <c r="G260" t="n">
-        <v>13.62166666666667</v>
+        <v>13.635</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9504,276 +9504,252 @@
         <v>13</v>
       </c>
       <c r="D261" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
       </c>
       <c r="F261" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G261" t="n">
+        <v>13.62166666666667</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>13</v>
+      </c>
+      <c r="C262" t="n">
+        <v>13</v>
+      </c>
+      <c r="D262" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E262" t="n">
+        <v>13</v>
+      </c>
+      <c r="F262" t="n">
         <v>4530</v>
       </c>
-      <c r="G261" t="n">
+      <c r="G262" t="n">
         <v>13.60833333333334</v>
       </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C263" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E263" t="n">
         <v>13</v>
       </c>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
+      <c r="F263" t="n">
+        <v>1680</v>
+      </c>
+      <c r="G263" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E264" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F264" t="n">
+        <v>48268.6762</v>
+      </c>
+      <c r="G264" t="n">
+        <v>13.59000000000001</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D265" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>10</v>
+      </c>
+      <c r="G265" t="n">
+        <v>13.58333333333334</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K265" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C266" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E266" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F266" t="n">
+        <v>18</v>
+      </c>
+      <c r="G266" t="n">
+        <v>13.57666666666667</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C267" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D267" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E267" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F267" t="n">
+        <v>21816.7102</v>
+      </c>
+      <c r="G267" t="n">
+        <v>13.57000000000001</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C262" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D262" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E262" t="n">
-        <v>13</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1680</v>
-      </c>
-      <c r="G262" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>13</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C263" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D263" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E263" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F263" t="n">
-        <v>48268.6762</v>
-      </c>
-      <c r="G263" t="n">
-        <v>13.59000000000001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C264" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D264" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E264" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F264" t="n">
-        <v>10</v>
-      </c>
-      <c r="G264" t="n">
-        <v>13.58333333333334</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C265" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D265" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E265" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F265" t="n">
-        <v>18</v>
-      </c>
-      <c r="G265" t="n">
-        <v>13.57666666666667</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C266" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D266" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E266" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F266" t="n">
-        <v>21816.7102</v>
-      </c>
-      <c r="G266" t="n">
-        <v>13.57000000000001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C267" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D267" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E267" t="n">
-        <v>13</v>
-      </c>
-      <c r="F267" t="n">
-        <v>8554.717500000001</v>
-      </c>
-      <c r="G267" t="n">
-        <v>13.56333333333334</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9783,31 +9759,33 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C268" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D268" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E268" t="n">
         <v>13</v>
       </c>
-      <c r="C268" t="n">
+      <c r="F268" t="n">
+        <v>8554.717500000001</v>
+      </c>
+      <c r="G268" t="n">
+        <v>13.56333333333334</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
         <v>13.3</v>
       </c>
-      <c r="D268" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E268" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F268" t="n">
-        <v>299928</v>
-      </c>
-      <c r="G268" t="n">
-        <v>13.55666666666667</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,7 +9800,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C269" t="n">
         <v>13.3</v>
@@ -9834,10 +9812,10 @@
         <v>12.8</v>
       </c>
       <c r="F269" t="n">
-        <v>1940</v>
+        <v>299928</v>
       </c>
       <c r="G269" t="n">
-        <v>13.54833333333334</v>
+        <v>13.55666666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9846,7 +9824,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9856,6 +9836,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C270" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D270" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1940</v>
+      </c>
+      <c r="G270" t="n">
+        <v>13.54833333333334</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M270"/>
+  <dimension ref="A1:N280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>222538.7141</v>
       </c>
       <c r="G2" t="n">
+        <v>14.02666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>14.29499999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
+        <v>14.00666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>14.28666666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>299930</v>
       </c>
       <c r="G4" t="n">
+        <v>13.99333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>14.275</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
+        <v>13.98666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>14.26666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>994.8201</v>
       </c>
       <c r="G6" t="n">
+        <v>13.96666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>14.25666666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
+        <v>13.96000000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>14.24999999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
+        <v>13.94666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>14.24333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>20</v>
       </c>
       <c r="G9" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>14.23499999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>21</v>
       </c>
       <c r="G10" t="n">
+        <v>13.94000000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>14.22499999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>21</v>
       </c>
       <c r="G11" t="n">
+        <v>13.94000000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>14.21666666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>236.2763</v>
       </c>
       <c r="G12" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>14.20499999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>13.94666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>14.19833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>29935</v>
       </c>
       <c r="G14" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>14.19333333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>241279.1149</v>
       </c>
       <c r="G15" t="n">
+        <v>13.88000000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>14.175</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>86240.8737</v>
       </c>
       <c r="G16" t="n">
+        <v>13.84666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>14.155</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>249920</v>
       </c>
       <c r="G17" t="n">
+        <v>13.83333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>14.14333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>18</v>
       </c>
       <c r="G18" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>14.12333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>67.83580000000001</v>
       </c>
       <c r="G19" t="n">
+        <v>13.78000000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>14.11166666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>56.1823</v>
       </c>
       <c r="G20" t="n">
+        <v>13.76000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>14.1</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
+        <v>13.73333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>14.08666666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>18.1823</v>
       </c>
       <c r="G22" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>14.08</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>58.1823</v>
       </c>
       <c r="G23" t="n">
+        <v>13.69333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>14.07166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>50</v>
       </c>
       <c r="G24" t="n">
+        <v>13.68000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>14.06333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>5236.6704</v>
       </c>
       <c r="G25" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>14.055</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>195259.6958851064</v>
       </c>
       <c r="G26" t="n">
+        <v>13.68666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>14.05166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>44</v>
       </c>
       <c r="G27" t="n">
+        <v>13.71333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>14.04833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>66550.89109999999</v>
       </c>
       <c r="G28" t="n">
+        <v>13.71333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>14.04</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>12128.1428</v>
       </c>
       <c r="G29" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>14.02833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>997.8190352112676</v>
       </c>
       <c r="G30" t="n">
+        <v>13.74000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>14.01666666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>119.8186</v>
       </c>
       <c r="G31" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>14.01</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>199922</v>
       </c>
       <c r="G32" t="n">
+        <v>13.76666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>13.99166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>28</v>
       </c>
       <c r="G33" t="n">
+        <v>13.78666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>13.97666666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>56521.0454</v>
       </c>
       <c r="G34" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="H34" t="n">
         <v>13.96</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>172498.9546</v>
       </c>
       <c r="G35" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H35" t="n">
         <v>13.94</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>5018.1814</v>
       </c>
       <c r="G36" t="n">
+        <v>13.77333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>13.92833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>35588.5882</v>
       </c>
       <c r="G37" t="n">
+        <v>13.74666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>13.91166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>31378.2937</v>
       </c>
       <c r="G38" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="H38" t="n">
         <v>13.895</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>169891.75</v>
       </c>
       <c r="G39" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H39" t="n">
         <v>13.88166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>40.2962</v>
       </c>
       <c r="G40" t="n">
+        <v>13.68666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>13.87</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>37</v>
       </c>
       <c r="G41" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="H41" t="n">
         <v>13.86</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3028.1814</v>
       </c>
       <c r="G42" t="n">
+        <v>13.63333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>13.85</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>9997.638000000001</v>
       </c>
       <c r="G43" t="n">
+        <v>13.60666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>13.83666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>46</v>
       </c>
       <c r="G44" t="n">
+        <v>13.59333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>13.825</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>28</v>
       </c>
       <c r="G45" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H45" t="n">
         <v>13.81333333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>18.136</v>
       </c>
       <c r="G46" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>13.80333333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>5099.864</v>
       </c>
       <c r="G47" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>13.79333333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>555.4814</v>
       </c>
       <c r="G48" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H48" t="n">
         <v>13.78166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>43703.006</v>
       </c>
       <c r="G49" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>13.77166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>18.1814</v>
       </c>
       <c r="G50" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>13.765</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>18</v>
       </c>
       <c r="G51" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>13.75166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>15110</v>
       </c>
       <c r="G52" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>13.73666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1527.1814</v>
       </c>
       <c r="G53" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>13.72666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>60.8186</v>
       </c>
       <c r="G54" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>13.71666666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>20</v>
       </c>
       <c r="G55" t="n">
+        <v>13.56666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>13.715</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1200</v>
       </c>
       <c r="G56" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H56" t="n">
         <v>13.70666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>20</v>
       </c>
       <c r="G57" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H57" t="n">
         <v>13.705</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>18.1836</v>
       </c>
       <c r="G58" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H58" t="n">
         <v>13.70166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H59" t="n">
         <v>13.69333333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1459.684</v>
       </c>
       <c r="G60" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>13.68333333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>120.4972</v>
       </c>
       <c r="G61" t="n">
+        <v>13.52666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>13.67833333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>30</v>
       </c>
       <c r="G62" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>13.67333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>18.1812</v>
       </c>
       <c r="G63" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>13.66666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H64" t="n">
         <v>13.66333333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>58352.5547</v>
       </c>
       <c r="G65" t="n">
+        <v>13.56666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>13.66000000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3500</v>
       </c>
       <c r="G66" t="n">
+        <v>13.58666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>13.65666666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>43370.3649</v>
       </c>
       <c r="G67" t="n">
+        <v>13.61333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>13.65000000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>500</v>
       </c>
       <c r="G68" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H68" t="n">
         <v>13.64500000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>6021.4671</v>
       </c>
       <c r="G69" t="n">
+        <v>13.62666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>13.64000000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1467.0072</v>
       </c>
       <c r="G70" t="n">
+        <v>13.62666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>13.63666666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>65287.9562</v>
       </c>
       <c r="G71" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>13.63500000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>72.99270072992701</v>
       </c>
       <c r="G72" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>13.63500000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>38621.8381</v>
       </c>
       <c r="G73" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>13.62833333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>20</v>
       </c>
       <c r="G74" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>13.62333333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
+        <v>13.65999999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>13.62833333333335</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>197478.3022</v>
       </c>
       <c r="G76" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>13.62833333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>70</v>
       </c>
       <c r="G77" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H77" t="n">
         <v>13.62500000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,27 @@
         <v>46097.9503</v>
       </c>
       <c r="G78" t="n">
+        <v>13.62666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>13.62500000000002</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3385,27 @@
         <v>17376.6737</v>
       </c>
       <c r="G79" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H79" t="n">
         <v>13.62333333333335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3429,27 @@
         <v>8.1812</v>
       </c>
       <c r="G80" t="n">
+        <v>13.60666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>13.62166666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3473,27 @@
         <v>14232.9299</v>
       </c>
       <c r="G81" t="n">
+        <v>13.59333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>13.62166666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3517,25 @@
         <v>987.2649</v>
       </c>
       <c r="G82" t="n">
+        <v>13.58666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>13.62000000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3559,25 @@
         <v>98.6131</v>
       </c>
       <c r="G83" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H83" t="n">
         <v>13.61666666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3601,25 @@
         <v>7938.407129927007</v>
       </c>
       <c r="G84" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H84" t="n">
         <v>13.61500000000002</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3643,25 @@
         <v>38063.6496</v>
       </c>
       <c r="G85" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H85" t="n">
         <v>13.61500000000002</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3685,25 @@
         <v>9210.21897810219</v>
       </c>
       <c r="G86" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H86" t="n">
         <v>13.60833333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3727,25 @@
         <v>566</v>
       </c>
       <c r="G87" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H87" t="n">
         <v>13.59666666666669</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3769,25 @@
         <v>9279.7358</v>
       </c>
       <c r="G88" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>13.58666666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3811,27 @@
         <v>103210.9539</v>
       </c>
       <c r="G89" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>13.58000000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3855,27 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
+        <v>13.52666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>13.57500000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3899,27 @@
         <v>2589.1635</v>
       </c>
       <c r="G91" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>13.56666666666669</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3943,27 @@
         <v>146300.0729</v>
       </c>
       <c r="G92" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>13.57166666666669</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3987,27 @@
         <v>30</v>
       </c>
       <c r="G93" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H93" t="n">
         <v>13.57333333333335</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>13.7</v>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4031,25 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
+        <v>13.59333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>13.57666666666669</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4073,25 @@
         <v>72.99270072992701</v>
       </c>
       <c r="G95" t="n">
+        <v>13.60666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>13.58333333333336</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4115,25 @@
         <v>269.7574</v>
       </c>
       <c r="G96" t="n">
+        <v>13.59333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>13.57666666666669</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4157,27 @@
         <v>3076</v>
       </c>
       <c r="G97" t="n">
+        <v>13.59333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>13.58166666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4201,27 @@
         <v>22609.9266</v>
       </c>
       <c r="G98" t="n">
+        <v>13.59333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>13.58500000000002</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4245,27 @@
         <v>30</v>
       </c>
       <c r="G99" t="n">
+        <v>13.58666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>13.58666666666669</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4289,27 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H100" t="n">
         <v>13.58833333333336</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4333,27 @@
         <v>1868.7286</v>
       </c>
       <c r="G101" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>13.58666666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4377,27 @@
         <v>8278.2714</v>
       </c>
       <c r="G102" t="n">
+        <v>13.58666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>13.58500000000002</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4421,27 @@
         <v>4486.4852</v>
       </c>
       <c r="G103" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>13.58500000000002</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4465,27 @@
         <v>18.6015</v>
       </c>
       <c r="G104" t="n">
+        <v>13.59333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>13.58000000000002</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4509,27 @@
         <v>20243.00133455882</v>
       </c>
       <c r="G105" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>13.57333333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4553,27 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>13.57333333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4597,25 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>13.56666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>13.57666666666669</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4639,25 @@
         <v>30</v>
       </c>
       <c r="G108" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H108" t="n">
         <v>13.57833333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4681,25 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>13.58166666666669</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4723,25 @@
         <v>28</v>
       </c>
       <c r="G110" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>13.58166666666669</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4765,25 @@
         <v>72</v>
       </c>
       <c r="G111" t="n">
+        <v>13.56666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>13.58500000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4807,25 @@
         <v>444.4082</v>
       </c>
       <c r="G112" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>13.58666666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4849,25 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>13.58666666666669</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4891,25 @@
         <v>156</v>
       </c>
       <c r="G114" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>13.58666666666669</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4933,25 @@
         <v>46</v>
       </c>
       <c r="G115" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>13.58500000000002</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4975,25 @@
         <v>58</v>
       </c>
       <c r="G116" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>13.59000000000002</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5017,25 @@
         <v>66</v>
       </c>
       <c r="G117" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>13.58833333333336</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5059,25 @@
         <v>2873.8235</v>
       </c>
       <c r="G118" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>13.58833333333336</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5101,25 @@
         <v>28.1812</v>
       </c>
       <c r="G119" t="n">
+        <v>13.56666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>13.58666666666669</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5143,27 @@
         <v>27648.0652</v>
       </c>
       <c r="G120" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>13.58333333333336</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5187,27 @@
         <v>269256.4243</v>
       </c>
       <c r="G121" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>13.58000000000002</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5231,27 @@
         <v>75471.6333</v>
       </c>
       <c r="G122" t="n">
+        <v>13.52666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>13.57166666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5275,27 @@
         <v>7518.7969</v>
       </c>
       <c r="G123" t="n">
+        <v>13.50666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>13.56833333333335</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>13.2</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5319,27 @@
         <v>142686.5059656716</v>
       </c>
       <c r="G124" t="n">
+        <v>13.49333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>13.56500000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5363,27 @@
         <v>158504.6100343284</v>
       </c>
       <c r="G125" t="n">
+        <v>13.48666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>13.56166666666669</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5407,27 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
+        <v>13.48666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>13.56000000000002</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5451,25 @@
         <v>141.6666</v>
       </c>
       <c r="G127" t="n">
+        <v>13.49333333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>13.55666666666668</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5493,25 @@
         <v>44</v>
       </c>
       <c r="G128" t="n">
+        <v>13.48666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>13.55333333333335</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5535,25 @@
         <v>306785.1839</v>
       </c>
       <c r="G129" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="H129" t="n">
         <v>13.55000000000002</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5577,25 @@
         <v>44</v>
       </c>
       <c r="G130" t="n">
+        <v>13.46666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>13.54500000000002</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5619,27 @@
         <v>5933.028</v>
       </c>
       <c r="G131" t="n">
+        <v>13.45333333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>13.54000000000002</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5663,27 @@
         <v>20</v>
       </c>
       <c r="G132" t="n">
+        <v>13.44666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>13.53666666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5707,27 @@
         <v>75670.03170000001</v>
       </c>
       <c r="G133" t="n">
+        <v>13.43333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>13.53333333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5751,25 @@
         <v>1000</v>
       </c>
       <c r="G134" t="n">
+        <v>13.41333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>13.52666666666668</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5793,27 @@
         <v>35504.88390073529</v>
       </c>
       <c r="G135" t="n">
+        <v>13.42666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>13.52500000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5837,27 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
+        <v>13.44666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>13.53000000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5881,25 @@
         <v>2599.428664705883</v>
       </c>
       <c r="G137" t="n">
+        <v>13.48000000000001</v>
+      </c>
+      <c r="H137" t="n">
         <v>13.53166666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5923,25 @@
         <v>28244.2477</v>
       </c>
       <c r="G138" t="n">
+        <v>13.50666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>13.53833333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5965,25 @@
         <v>75000.00003529411</v>
       </c>
       <c r="G139" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="H139" t="n">
         <v>13.54000000000002</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6007,25 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>13.54333333333335</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6049,25 @@
         <v>3566.6176</v>
       </c>
       <c r="G141" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>13.54500000000002</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6091,25 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H142" t="n">
         <v>13.54500000000002</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6133,25 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>13.54500000000002</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6175,25 @@
         <v>5658.7073</v>
       </c>
       <c r="G144" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>13.54333333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6217,25 @@
         <v>88.23520000000001</v>
       </c>
       <c r="G145" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>13.54333333333335</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6259,25 @@
         <v>54397.6162</v>
       </c>
       <c r="G146" t="n">
+        <v>13.58666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>13.54166666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6301,25 @@
         <v>20</v>
       </c>
       <c r="G147" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H147" t="n">
         <v>13.54666666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6343,25 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H148" t="n">
         <v>13.55166666666668</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6385,25 @@
         <v>72.99270072992701</v>
       </c>
       <c r="G149" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>13.55500000000002</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6427,25 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>13.55666666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6469,25 @@
         <v>35416.1217</v>
       </c>
       <c r="G151" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>13.55500000000002</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6511,25 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>13.55500000000002</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6553,25 @@
         <v>10</v>
       </c>
       <c r="G153" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>13.55500000000002</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6595,25 @@
         <v>10</v>
       </c>
       <c r="G154" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>13.55500000000002</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6637,25 @@
         <v>10</v>
       </c>
       <c r="G155" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>13.55500000000002</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6679,25 @@
         <v>36785.6617</v>
       </c>
       <c r="G156" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>13.56000000000002</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6721,27 @@
         <v>40620.3966</v>
       </c>
       <c r="G157" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>13.55833333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6765,27 @@
         <v>105698.5773</v>
       </c>
       <c r="G158" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>13.56000000000002</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6809,27 @@
         <v>65148.28979927007</v>
       </c>
       <c r="G159" t="n">
+        <v>13.65999999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>13.56166666666669</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>13.7</v>
+      </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6853,25 @@
         <v>88.23520000000001</v>
       </c>
       <c r="G160" t="n">
+        <v>13.65999999999999</v>
+      </c>
+      <c r="H160" t="n">
         <v>13.56333333333335</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6895,25 @@
         <v>44</v>
       </c>
       <c r="G161" t="n">
+        <v>13.67333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>13.56666666666669</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6937,25 @@
         <v>30000</v>
       </c>
       <c r="G162" t="n">
+        <v>13.67333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>13.56833333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6979,25 @@
         <v>570.7246376811594</v>
       </c>
       <c r="G163" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H163" t="n">
         <v>13.57166666666668</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7021,25 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
+        <v>13.68666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>13.57833333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7063,25 @@
         <v>50526.7391</v>
       </c>
       <c r="G165" t="n">
+        <v>13.69333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>13.58666666666668</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7105,25 @@
         <v>67545.5604</v>
       </c>
       <c r="G166" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>13.58833333333335</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7147,25 @@
         <v>17477.6278</v>
       </c>
       <c r="G167" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>13.59000000000002</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7189,25 @@
         <v>10</v>
       </c>
       <c r="G168" t="n">
+        <v>13.71333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>13.59333333333335</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7231,25 @@
         <v>7910.7753</v>
       </c>
       <c r="G169" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="H169" t="n">
         <v>13.59666666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7273,25 @@
         <v>10</v>
       </c>
       <c r="G170" t="n">
+        <v>13.72666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>13.60000000000002</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7315,25 @@
         <v>36166.5217</v>
       </c>
       <c r="G171" t="n">
+        <v>13.74000000000001</v>
+      </c>
+      <c r="H171" t="n">
         <v>13.60333333333335</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7357,25 @@
         <v>48293.00476231884</v>
       </c>
       <c r="G172" t="n">
+        <v>13.76000000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>13.61000000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7399,25 @@
         <v>10</v>
       </c>
       <c r="G173" t="n">
+        <v>13.77333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>13.61500000000001</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7441,25 @@
         <v>20</v>
       </c>
       <c r="G174" t="n">
+        <v>13.78666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>13.62000000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7483,25 @@
         <v>395.6268</v>
       </c>
       <c r="G175" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>13.62333333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7525,25 @@
         <v>70965.98579999999</v>
       </c>
       <c r="G176" t="n">
+        <v>13.81333333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>13.63166666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7567,25 @@
         <v>22</v>
       </c>
       <c r="G177" t="n">
+        <v>13.84000000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>13.64000000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7609,25 @@
         <v>3557.701</v>
       </c>
       <c r="G178" t="n">
+        <v>13.84666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>13.64500000000001</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7651,25 @@
         <v>857.812</v>
       </c>
       <c r="G179" t="n">
+        <v>13.85333333333334</v>
+      </c>
+      <c r="H179" t="n">
         <v>13.65000000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7693,25 @@
         <v>212.2857</v>
       </c>
       <c r="G180" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>13.66000000000001</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7735,25 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
+        <v>13.88666666666668</v>
+      </c>
+      <c r="H181" t="n">
         <v>13.67166666666668</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7777,25 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
+        <v>13.90666666666668</v>
+      </c>
+      <c r="H182" t="n">
         <v>13.68500000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7819,25 @@
         <v>19669.6463</v>
       </c>
       <c r="G183" t="n">
+        <v>13.92000000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>13.69666666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7861,25 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
+        <v>13.94000000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>13.70833333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7903,25 @@
         <v>10000</v>
       </c>
       <c r="G185" t="n">
+        <v>13.95333333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>13.71666666666668</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,20 +7945,25 @@
         <v>11</v>
       </c>
       <c r="G186" t="n">
+        <v>13.97333333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>13.72500000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6923,18 +7985,21 @@
         <v>279900</v>
       </c>
       <c r="G187" t="n">
+        <v>13.95333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>13.72500000000001</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +8023,21 @@
         <v>11</v>
       </c>
       <c r="G188" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H188" t="n">
         <v>13.73333333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +8061,21 @@
         <v>236435</v>
       </c>
       <c r="G189" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H189" t="n">
         <v>13.74000000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +8099,21 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
+        <v>13.95333333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>13.74500000000001</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +8137,21 @@
         <v>54</v>
       </c>
       <c r="G191" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H191" t="n">
         <v>13.74833333333335</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8175,21 @@
         <v>14204.705</v>
       </c>
       <c r="G192" t="n">
+        <v>13.89333333333334</v>
+      </c>
+      <c r="H192" t="n">
         <v>13.75166666666668</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8213,21 @@
         <v>4694.8015</v>
       </c>
       <c r="G193" t="n">
+        <v>13.88666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>13.75833333333335</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8251,21 @@
         <v>1165.9467</v>
       </c>
       <c r="G194" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H194" t="n">
         <v>13.76666666666668</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8289,21 @@
         <v>8632.0054</v>
       </c>
       <c r="G195" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>13.77000000000001</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8327,21 @@
         <v>11</v>
       </c>
       <c r="G196" t="n">
+        <v>13.84666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>13.77166666666668</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8365,21 @@
         <v>9313.262000000001</v>
       </c>
       <c r="G197" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="H197" t="n">
         <v>13.77000000000001</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8403,21 @@
         <v>1980</v>
       </c>
       <c r="G198" t="n">
+        <v>13.79333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>13.76833333333335</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8441,21 @@
         <v>11</v>
       </c>
       <c r="G199" t="n">
+        <v>13.76666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>13.77000000000001</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8479,25 @@
         <v>22198.2887</v>
       </c>
       <c r="G200" t="n">
+        <v>13.74666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>13.77000000000001</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L200" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8521,27 @@
         <v>10</v>
       </c>
       <c r="G201" t="n">
+        <v>13.72666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>13.77333333333334</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8565,27 @@
         <v>68435.7246</v>
       </c>
       <c r="G202" t="n">
+        <v>13.74666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>13.77666666666668</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8609,21 @@
         <v>4038.8768</v>
       </c>
       <c r="G203" t="n">
+        <v>13.73333333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>13.78000000000001</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8647,21 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
+        <v>13.73333333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>13.78500000000001</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8685,21 @@
         <v>50000</v>
       </c>
       <c r="G205" t="n">
+        <v>13.74666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>13.78833333333334</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8723,21 @@
         <v>44.4444</v>
       </c>
       <c r="G206" t="n">
+        <v>13.76000000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>13.79166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8761,21 @@
         <v>40613.9613</v>
       </c>
       <c r="G207" t="n">
+        <v>13.76666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>13.79333333333334</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8799,21 @@
         <v>444.4444</v>
       </c>
       <c r="G208" t="n">
+        <v>13.76666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>13.795</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8837,21 @@
         <v>34808.8288</v>
       </c>
       <c r="G209" t="n">
+        <v>13.76000000000001</v>
+      </c>
+      <c r="H209" t="n">
         <v>13.795</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8875,21 @@
         <v>60</v>
       </c>
       <c r="G210" t="n">
+        <v>13.76000000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>13.79666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8913,21 @@
         <v>2206.0425</v>
       </c>
       <c r="G211" t="n">
+        <v>13.77333333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>13.80333333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8951,21 @@
         <v>85235.8855</v>
       </c>
       <c r="G212" t="n">
+        <v>13.80666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>13.81</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8989,21 @@
         <v>133873.1098</v>
       </c>
       <c r="G213" t="n">
+        <v>13.84000000000001</v>
+      </c>
+      <c r="H213" t="n">
         <v>13.81666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +9027,21 @@
         <v>10</v>
       </c>
       <c r="G214" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>13.82333333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +9065,21 @@
         <v>15416.7461</v>
       </c>
       <c r="G215" t="n">
+        <v>13.89333333333334</v>
+      </c>
+      <c r="H215" t="n">
         <v>13.83</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +9103,21 @@
         <v>104095.8497</v>
       </c>
       <c r="G216" t="n">
+        <v>13.90666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>13.83666666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +9141,21 @@
         <v>136635.004</v>
       </c>
       <c r="G217" t="n">
+        <v>13.90666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>13.84166666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +9179,21 @@
         <v>10</v>
       </c>
       <c r="G218" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H218" t="n">
         <v>13.85</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +9217,21 @@
         <v>2132.695</v>
       </c>
       <c r="G219" t="n">
+        <v>13.94666666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>13.85666666666666</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +9255,21 @@
         <v>4444.4444</v>
       </c>
       <c r="G220" t="n">
+        <v>13.94666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>13.86</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +9293,21 @@
         <v>46034.6932</v>
       </c>
       <c r="G221" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H221" t="n">
         <v>13.85833333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +9331,21 @@
         <v>5010</v>
       </c>
       <c r="G222" t="n">
+        <v>13.94666666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>13.86166666666666</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9369,21 @@
         <v>299920</v>
       </c>
       <c r="G223" t="n">
+        <v>13.95333333333334</v>
+      </c>
+      <c r="H223" t="n">
         <v>13.86333333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9407,21 @@
         <v>299900</v>
       </c>
       <c r="G224" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H224" t="n">
         <v>13.85666666666666</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9445,21 @@
         <v>969.134</v>
       </c>
       <c r="G225" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H225" t="n">
         <v>13.85666666666666</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9483,21 @@
         <v>12</v>
       </c>
       <c r="G226" t="n">
+        <v>13.91333333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>13.855</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9521,21 @@
         <v>11.97</v>
       </c>
       <c r="G227" t="n">
+        <v>13.87333333333334</v>
+      </c>
+      <c r="H227" t="n">
         <v>13.85166666666666</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9559,21 @@
         <v>18.1822</v>
       </c>
       <c r="G228" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H228" t="n">
         <v>13.84833333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9597,21 @@
         <v>864.5856</v>
       </c>
       <c r="G229" t="n">
+        <v>13.80666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>13.845</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9635,21 @@
         <v>80</v>
       </c>
       <c r="G230" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H230" t="n">
         <v>13.84666666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9673,21 @@
         <v>38692.6618</v>
       </c>
       <c r="G231" t="n">
+        <v>13.76666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>13.84333333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9711,21 @@
         <v>10</v>
       </c>
       <c r="G232" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H232" t="n">
         <v>13.84166666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9749,21 @@
         <v>21384.3708</v>
       </c>
       <c r="G233" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="H233" t="n">
         <v>13.83666666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9787,21 @@
         <v>14096.5403</v>
       </c>
       <c r="G234" t="n">
+        <v>13.69333333333334</v>
+      </c>
+      <c r="H234" t="n">
         <v>13.83333333333334</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9825,21 @@
         <v>29824.8649</v>
       </c>
       <c r="G235" t="n">
+        <v>13.67333333333334</v>
+      </c>
+      <c r="H235" t="n">
         <v>13.83000000000001</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9863,21 @@
         <v>11</v>
       </c>
       <c r="G236" t="n">
+        <v>13.67333333333334</v>
+      </c>
+      <c r="H236" t="n">
         <v>13.82333333333334</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9901,21 @@
         <v>1044</v>
       </c>
       <c r="G237" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>13.815</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9939,21 @@
         <v>10</v>
       </c>
       <c r="G238" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H238" t="n">
         <v>13.81166666666667</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9977,21 @@
         <v>60825.3378</v>
       </c>
       <c r="G239" t="n">
+        <v>13.64666666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>13.80500000000001</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +10015,21 @@
         <v>258344.7031</v>
       </c>
       <c r="G240" t="n">
+        <v>13.61333333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>13.79333333333334</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +10053,21 @@
         <v>14165.028</v>
       </c>
       <c r="G241" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H241" t="n">
         <v>13.78333333333334</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +10091,21 @@
         <v>14466.5217</v>
       </c>
       <c r="G242" t="n">
+        <v>13.58666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>13.77166666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +10129,21 @@
         <v>14145.028</v>
       </c>
       <c r="G243" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H243" t="n">
         <v>13.76333333333334</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +10167,27 @@
         <v>2749.0495</v>
       </c>
       <c r="G244" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H244" t="n">
         <v>13.755</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +10211,27 @@
         <v>18337.647</v>
       </c>
       <c r="G245" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H245" t="n">
         <v>13.74833333333334</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +10255,25 @@
         <v>54</v>
       </c>
       <c r="G246" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H246" t="n">
         <v>13.74000000000001</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +10297,25 @@
         <v>4393.7777</v>
       </c>
       <c r="G247" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>13.74000000000001</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +10339,25 @@
         <v>10</v>
       </c>
       <c r="G248" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H248" t="n">
         <v>13.73333333333334</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +10381,25 @@
         <v>126566.2357</v>
       </c>
       <c r="G249" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H249" t="n">
         <v>13.72833333333334</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +10423,25 @@
         <v>10</v>
       </c>
       <c r="G250" t="n">
+        <v>13.52666666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>13.72333333333334</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +10465,25 @@
         <v>787040.9491</v>
       </c>
       <c r="G251" t="n">
+        <v>13.48666666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>13.71500000000001</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +10507,25 @@
         <v>10</v>
       </c>
       <c r="G252" t="n">
+        <v>13.45333333333334</v>
+      </c>
+      <c r="H252" t="n">
         <v>13.70500000000001</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +10549,25 @@
         <v>6702.6873</v>
       </c>
       <c r="G253" t="n">
+        <v>13.42666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>13.69666666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10591,25 @@
         <v>7029.5155</v>
       </c>
       <c r="G254" t="n">
+        <v>13.39333333333334</v>
+      </c>
+      <c r="H254" t="n">
         <v>13.68333333333334</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10633,25 @@
         <v>13058.5465</v>
       </c>
       <c r="G255" t="n">
+        <v>13.37333333333334</v>
+      </c>
+      <c r="H255" t="n">
         <v>13.67000000000001</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10675,27 @@
         <v>106142.571</v>
       </c>
       <c r="G256" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="H256" t="n">
         <v>13.66166666666667</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>13</v>
+      </c>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10719,27 @@
         <v>56797.4521</v>
       </c>
       <c r="G257" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="H257" t="n">
         <v>13.65666666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>13.2</v>
+      </c>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10763,25 @@
         <v>1223.7481</v>
       </c>
       <c r="G258" t="n">
+        <v>13.34666666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>13.65166666666667</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10805,25 @@
         <v>1010</v>
       </c>
       <c r="G259" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="H259" t="n">
         <v>13.64333333333334</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10847,27 @@
         <v>510</v>
       </c>
       <c r="G260" t="n">
+        <v>13.29333333333333</v>
+      </c>
+      <c r="H260" t="n">
         <v>13.635</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>13.2</v>
+      </c>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10891,27 @@
         <v>2500</v>
       </c>
       <c r="G261" t="n">
+        <v>13.25333333333334</v>
+      </c>
+      <c r="H261" t="n">
         <v>13.62166666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>13.2</v>
+      </c>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10935,27 @@
         <v>4530</v>
       </c>
       <c r="G262" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="H262" t="n">
         <v>13.60833333333334</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>13</v>
+      </c>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10979,27 @@
         <v>1680</v>
       </c>
       <c r="G263" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>13</v>
+      </c>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +11023,27 @@
         <v>48268.6762</v>
       </c>
       <c r="G264" t="n">
+        <v>13.18000000000001</v>
+      </c>
+      <c r="H264" t="n">
         <v>13.59000000000001</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,22 +11067,25 @@
         <v>10</v>
       </c>
       <c r="G265" t="n">
+        <v>13.18666666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>13.58333333333334</v>
       </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K265" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9692,24 +11109,25 @@
         <v>18</v>
       </c>
       <c r="G266" t="n">
+        <v>13.20666666666667</v>
+      </c>
+      <c r="H266" t="n">
         <v>13.57666666666667</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9733,24 +11151,25 @@
         <v>21816.7102</v>
       </c>
       <c r="G267" t="n">
+        <v>13.22666666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>13.57000000000001</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9774,24 +11193,25 @@
         <v>8554.717500000001</v>
       </c>
       <c r="G268" t="n">
+        <v>13.23333333333334</v>
+      </c>
+      <c r="H268" t="n">
         <v>13.56333333333334</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9815,24 +11235,25 @@
         <v>299928</v>
       </c>
       <c r="G269" t="n">
+        <v>13.25333333333334</v>
+      </c>
+      <c r="H269" t="n">
         <v>13.55666666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9856,24 +11277,445 @@
         <v>1940</v>
       </c>
       <c r="G270" t="n">
+        <v>13.27333333333334</v>
+      </c>
+      <c r="H270" t="n">
         <v>13.54833333333334</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C271" t="n">
         <v>13.3</v>
       </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
+      <c r="D271" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F271" t="n">
+        <v>299920</v>
+      </c>
+      <c r="G271" t="n">
+        <v>13.28000000000001</v>
+      </c>
+      <c r="H271" t="n">
+        <v>13.53833333333334</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C272" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D272" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E272" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F272" t="n">
+        <v>34185.877</v>
+      </c>
+      <c r="G272" t="n">
+        <v>13.27333333333334</v>
+      </c>
+      <c r="H272" t="n">
+        <v>13.52333333333334</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C273" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D273" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1210</v>
+      </c>
+      <c r="G273" t="n">
+        <v>13.27333333333334</v>
+      </c>
+      <c r="H273" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C274" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D274" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E274" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F274" t="n">
+        <v>9998</v>
+      </c>
+      <c r="G274" t="n">
+        <v>13.28666666666667</v>
+      </c>
+      <c r="H274" t="n">
+        <v>13.49833333333334</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C275" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D275" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E275" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F275" t="n">
+        <v>74.6268656716418</v>
+      </c>
+      <c r="G275" t="n">
+        <v>13.30000000000001</v>
+      </c>
+      <c r="H275" t="n">
+        <v>13.48666666666667</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C276" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D276" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F276" t="n">
+        <v>96679.98603432837</v>
+      </c>
+      <c r="G276" t="n">
+        <v>13.33333333333334</v>
+      </c>
+      <c r="H276" t="n">
+        <v>13.47833333333334</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C277" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D277" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F277" t="n">
+        <v>299920</v>
+      </c>
+      <c r="G277" t="n">
+        <v>13.36000000000001</v>
+      </c>
+      <c r="H277" t="n">
+        <v>13.47166666666667</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E278" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F278" t="n">
+        <v>299920</v>
+      </c>
+      <c r="G278" t="n">
+        <v>13.32000000000001</v>
+      </c>
+      <c r="H278" t="n">
+        <v>13.44666666666667</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C279" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D279" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F279" t="n">
+        <v>220</v>
+      </c>
+      <c r="G279" t="n">
+        <v>13.28000000000001</v>
+      </c>
+      <c r="H279" t="n">
+        <v>13.42333333333334</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D280" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F280" t="n">
+        <v>13653.076</v>
+      </c>
+      <c r="G280" t="n">
+        <v>13.24000000000001</v>
+      </c>
+      <c r="H280" t="n">
+        <v>13.40666666666667</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N338"/>
+  <dimension ref="A1:M338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-233831.874351049</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-234861.874351049</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-234816.985551049</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-249851.524551049</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>25310.825048951</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>25310.825048951</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-349955.872451049</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-438656.0947510491</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-826457.7094510491</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-826457.7094510491</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-903828.9953510491</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-681290.2812510491</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-981230.2812510491</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-981508.5575510492</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-1309018.546151049</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-1059116.546151049</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-1059048.710351049</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-1058982.345751049</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5269,19 @@
         <v>-1375020.480736016</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>13.5</v>
+      </c>
+      <c r="J148" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5308,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5345,23 @@
         <v>-1228720.407836016</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J150" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5386,23 @@
         <v>-1228720.407836016</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>13.7</v>
+      </c>
+      <c r="J151" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5429,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5468,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5507,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5546,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5585,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5624,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5663,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5702,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5739,23 @@
         <v>-1225914.165236016</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J160" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5780,23 @@
         <v>-1225914.165236016</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J161" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5821,23 @@
         <v>-1225932.766736016</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J162" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +5862,23 @@
         <v>-1246175.768070575</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="J163" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5905,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5944,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5983,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6022,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6061,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6100,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6139,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6178,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6217,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6256,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6648,18 +6293,23 @@
         <v>-1246600.176270575</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J174" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6336,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6375,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6414,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6792,18 +6451,23 @@
         <v>-1274248.241470575</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J178" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6494,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6864,18 +6531,23 @@
         <v>-1618976.299070575</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>13.3</v>
+      </c>
+      <c r="J180" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6900,18 +6572,23 @@
         <v>-1611457.502170575</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>13.2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6936,18 +6613,23 @@
         <v>-1468770.996204903</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>13.3</v>
+      </c>
+      <c r="J182" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6656,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6695,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6734,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6773,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6812,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6851,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +6888,23 @@
         <v>-1310442.052770575</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="J189" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +6929,23 @@
         <v>-1310422.052770575</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="J190" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7260,18 +6970,23 @@
         <v>-1386092.084470575</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>13.5</v>
+      </c>
+      <c r="J191" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7296,18 +7011,23 @@
         <v>-1387092.084470575</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="J192" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7332,18 +7052,23 @@
         <v>-1351587.20056984</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>13.3</v>
+      </c>
+      <c r="J193" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7368,18 +7093,23 @@
         <v>-1351587.20056984</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J194" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,18 +7134,23 @@
         <v>-1348987.771905134</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>13.6</v>
+      </c>
+      <c r="J195" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +7177,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +7216,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +7255,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +7294,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7333,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7372,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7411,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7450,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7489,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7528,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7567,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7606,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7645,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7684,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7723,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7762,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7801,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7840,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7879,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7918,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7957,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7996,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +8035,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +8074,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +8113,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +8152,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +8191,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +8230,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +8269,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +8308,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +8347,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +8386,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +8425,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +8464,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +8503,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8542,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8581,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8620,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8659,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8698,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8737,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8776,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8815,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8854,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8893,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8932,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8971,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +9010,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +9049,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9204,18 +9086,21 @@
         <v>-1808512.265302747</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +9127,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9276,18 +9158,15 @@
         <v>-2044936.265302747</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +9193,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +9226,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +9259,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +9292,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +9325,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +9358,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +9391,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +9424,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +9457,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +9490,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +9523,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +9556,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +9589,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9622,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9655,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9688,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9721,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9754,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9787,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9820,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9853,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9886,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9919,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9952,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9985,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +10018,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +10051,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +10084,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +10117,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +10150,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +10183,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +10216,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +10249,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +10282,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +10315,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +10348,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +10381,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +10414,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +10447,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +10480,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +10513,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +10546,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +10579,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +10612,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10645,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10678,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10711,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10744,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11040,18 +10775,15 @@
         <v>-2646743.063302747</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10810,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10843,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10876,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11184,18 +10907,15 @@
         <v>-2966214.597902746</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11220,18 +10940,15 @@
         <v>-2952069.569902746</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11256,18 +10973,15 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11292,18 +11006,15 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11328,18 +11039,15 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11364,18 +11072,15 @@
         <v>-2953714.298102746</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +11107,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +11140,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +11173,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +11206,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11546,16 +11239,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +11272,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11618,16 +11305,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11654,16 +11338,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11690,16 +11371,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11724,24 +11402,15 @@
         <v>-3578142.052302747</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="n">
-        <v>13.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11768,20 +11437,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11808,20 +11470,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11846,24 +11501,21 @@
         <v>-3579152.052302747</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="n">
         <v>13.2</v>
       </c>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11888,24 +11540,19 @@
         <v>-3581652.052302747</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11930,24 +11577,19 @@
         <v>-3581652.052302747</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="n">
-        <v>13</v>
-      </c>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11972,24 +11614,19 @@
         <v>-3579972.052302747</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="n">
-        <v>13</v>
-      </c>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12014,24 +11651,19 @@
         <v>-3579972.052302747</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12056,24 +11688,19 @@
         <v>-3579962.052302747</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12100,20 +11727,17 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12138,24 +11762,19 @@
         <v>-3579980.052302747</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12182,20 +11801,17 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12222,20 +11838,17 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12260,24 +11873,19 @@
         <v>-3879908.052302747</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12304,20 +11912,17 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12344,20 +11949,17 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12384,20 +11986,17 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12424,20 +12023,17 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12464,20 +12060,17 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12504,20 +12097,17 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12544,20 +12134,17 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12584,20 +12171,17 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12622,24 +12206,19 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12664,26 +12243,21 @@
         <v>-4392392.867268418</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-233831.874351049</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-234861.874351049</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-234816.985551049</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-249851.524551049</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-249849.705751049</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-349955.872451049</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-438656.0947510491</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-750428.6377510491</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-822448.3928510491</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-822448.3928510491</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-826457.7094510491</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-826457.7094510491</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-903828.9953510491</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-681290.2812510491</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-981220.2812510491</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-981230.2812510491</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-981272.2812510491</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-981508.5575510492</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1309018.546151049</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1059116.546151049</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1059048.710351049</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1058982.345751049</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -5269,14 +5269,10 @@
         <v>-1375020.480736016</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J148" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5309,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5345,19 +5335,11 @@
         <v>-1228720.407836016</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J150" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5386,19 +5368,11 @@
         <v>-1228720.407836016</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J151" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5430,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5469,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5508,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5547,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5586,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5625,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5664,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5703,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5739,19 +5665,11 @@
         <v>-1225914.165236016</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J160" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5780,19 +5698,11 @@
         <v>-1225914.165236016</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J161" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5821,19 +5731,11 @@
         <v>-1225932.766736016</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J162" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5862,19 +5764,11 @@
         <v>-1246175.768070575</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J163" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5906,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5945,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5984,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6023,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6062,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6101,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6140,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6179,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6218,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6257,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6293,19 +6127,11 @@
         <v>-1246600.176270575</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6337,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6376,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6415,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6451,19 +6259,11 @@
         <v>-1274248.241470575</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J178" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6495,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6531,19 +6325,11 @@
         <v>-1618976.299070575</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J180" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6572,19 +6358,11 @@
         <v>-1611457.502170575</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J181" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6613,19 +6391,11 @@
         <v>-1468770.996204903</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J182" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6657,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6696,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6735,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6774,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6888,19 +6622,11 @@
         <v>-1310442.052770575</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J189" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6929,19 +6655,11 @@
         <v>-1310422.052770575</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J190" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6970,19 +6688,11 @@
         <v>-1386092.084470575</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J191" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7011,19 +6721,11 @@
         <v>-1387092.084470575</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J192" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7052,19 +6754,11 @@
         <v>-1351587.20056984</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J193" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7093,19 +6787,11 @@
         <v>-1351587.20056984</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J194" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7134,19 +6820,11 @@
         <v>-1348987.771905134</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J195" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7217,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7334,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7373,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7412,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7490,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7529,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7568,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7607,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7646,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7685,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7724,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7763,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7802,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7841,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7880,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7919,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7958,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7997,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8036,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8075,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8114,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8153,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8192,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8231,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8270,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8309,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8348,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8387,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8426,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8465,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8504,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8543,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8582,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8621,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8660,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8699,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8738,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8777,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8816,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8855,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8894,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8933,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8972,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9011,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9050,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9086,19 +8470,13 @@
         <v>-1808512.265302747</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M245" t="inlineStr"/>
     </row>
@@ -9158,7 +8536,7 @@
         <v>-2044936.265302747</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10775,7 +10153,7 @@
         <v>-2646743.063302747</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10907,7 +10285,7 @@
         <v>-2966214.597902746</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10940,7 +10318,7 @@
         <v>-2952069.569902746</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10973,7 +10351,7 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11006,7 +10384,7 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11039,7 +10417,7 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11072,7 +10450,7 @@
         <v>-2953714.298102746</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11501,609 +10879,545 @@
         <v>-3579152.052302747</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>13</v>
+      </c>
+      <c r="C319" t="n">
+        <v>13</v>
+      </c>
+      <c r="D319" t="n">
+        <v>13</v>
+      </c>
+      <c r="E319" t="n">
+        <v>13</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-3581652.052302747</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>13</v>
+      </c>
+      <c r="C320" t="n">
+        <v>13</v>
+      </c>
+      <c r="D320" t="n">
         <v>13.2</v>
       </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
+      <c r="E320" t="n">
+        <v>13</v>
+      </c>
+      <c r="F320" t="n">
+        <v>4530</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-3581652.052302747</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C321" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D321" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E321" t="n">
+        <v>13</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1680</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-3579972.052302747</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F322" t="n">
+        <v>48268.6762</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-3579972.052302747</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>10</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-3579962.052302747</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F324" t="n">
+        <v>18</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-3579980.052302747</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C325" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D325" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E325" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F325" t="n">
+        <v>21816.7102</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-3579980.052302747</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C326" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D326" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E326" t="n">
+        <v>13</v>
+      </c>
+      <c r="F326" t="n">
+        <v>8554.717500000001</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-3579980.052302747</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>13</v>
+      </c>
+      <c r="C327" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E327" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F327" t="n">
+        <v>299928</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-3879908.052302747</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C328" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D328" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E328" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1940</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-3879908.052302747</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C329" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D329" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E329" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F329" t="n">
+        <v>299920</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-3879908.052302747</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D330" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E330" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F330" t="n">
+        <v>34185.877</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-3914093.929302746</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C331" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D331" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E331" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1210</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-3912883.929302746</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C332" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D332" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E332" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F332" t="n">
+        <v>9998</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-3902885.929302746</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F333" t="n">
+        <v>74.6268656716418</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-3902885.929302746</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C334" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D334" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E334" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F334" t="n">
+        <v>96679.98603432837</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-3806205.943268418</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>13</v>
-      </c>
-      <c r="C319" t="n">
-        <v>13</v>
-      </c>
-      <c r="D319" t="n">
-        <v>13</v>
-      </c>
-      <c r="E319" t="n">
-        <v>13</v>
-      </c>
-      <c r="F319" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-3581652.052302747</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>13</v>
-      </c>
-      <c r="C320" t="n">
-        <v>13</v>
-      </c>
-      <c r="D320" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E320" t="n">
-        <v>13</v>
-      </c>
-      <c r="F320" t="n">
-        <v>4530</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-3581652.052302747</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C321" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D321" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E321" t="n">
-        <v>13</v>
-      </c>
-      <c r="F321" t="n">
-        <v>1680</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-3579972.052302747</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F322" t="n">
-        <v>48268.6762</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-3579972.052302747</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F323" t="n">
-        <v>10</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-3579962.052302747</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F324" t="n">
-        <v>18</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C325" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D325" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E325" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F325" t="n">
-        <v>21816.7102</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C326" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D326" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E326" t="n">
-        <v>13</v>
-      </c>
-      <c r="F326" t="n">
-        <v>8554.717500000001</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>13</v>
-      </c>
-      <c r="C327" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D327" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E327" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F327" t="n">
-        <v>299928</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C328" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D328" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E328" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1940</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C329" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D329" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E329" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F329" t="n">
-        <v>299920</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C330" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D330" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E330" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F330" t="n">
-        <v>34185.877</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-3914093.929302746</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C331" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D331" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E331" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F331" t="n">
-        <v>1210</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-3912883.929302746</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C332" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D332" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E332" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F332" t="n">
-        <v>9998</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-3902885.929302746</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F333" t="n">
-        <v>74.6268656716418</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-3902885.929302746</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C334" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D334" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E334" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F334" t="n">
-        <v>96679.98603432837</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-3806205.943268418</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12132,9 +11446,11 @@
         <v>-4106125.943268418</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12169,9 +11485,11 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>13.4</v>
+      </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12206,9 +11524,11 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12243,9 +11563,11 @@
         <v>-4392392.867268418</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -12258,6 +11580,6 @@
       <c r="M338" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-249851.524551049</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-249849.705751049</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-750428.6377510491</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-822448.3928510491</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-822448.3928510491</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-822438.3928510491</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-915249.8301510491</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-826457.7094510491</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-826457.7094510491</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-903828.9953510491</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-981220.2812510491</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-981272.2812510491</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-947638.3541659425</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1310442.052770575</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1481833.770540428</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1517249.892240428</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1488947.373240428</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1518903.373240428</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1586253.835802747</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1518623.265302747</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1528623.265302747</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1528612.265302747</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1808512.265302747</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1808501.265302747</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2044936.265302747</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2044946.265302747</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2045000.265302747</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2026111.758802747</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2035425.020802747</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-2035414.020802747</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-2035404.020802747</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2035394.020802747</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2070247.294002747</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2070187.294002747</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2067981.251502747</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1982745.366002747</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2223466.219702747</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2225598.914702747</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2953714.298102746</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10747,11 +10747,17 @@
         <v>-3634939.504402746</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>13</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10790,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10827,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10864,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +10901,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +10938,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +10975,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11012,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11049,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11086,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11123,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11160,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11197,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11234,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11271,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11308,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11345,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11382,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11419,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11456,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,15 +11489,13 @@
         <v>-3806205.943268418</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -11446,11 +11526,9 @@
         <v>-4106125.943268418</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -11485,11 +11563,9 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -11524,11 +11600,9 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11563,11 +11637,9 @@
         <v>-4392392.867268418</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -11580,6 +11652,6 @@
       <c r="M338" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -451,7 +451,7 @@
         <v>-233831.874351049</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-234861.874351049</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-234816.985551049</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-235858.985551049</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-235848.985551049</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-235848.985551049</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-236855.949951049</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-249851.524551049</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-249849.705751049</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-164375.996451049</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-349511.872451049</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-349955.872451049</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-280469.802551049</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-280479.802551049</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-291713.5739510491</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-291663.5739510491</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-438656.0947510491</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-947638.3541659425</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1310442.052770575</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1481833.770540428</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1517249.892240428</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1488947.373240428</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1518903.373240428</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1586253.835802747</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1518623.265302747</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1528623.265302747</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1528612.265302747</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1808512.265302747</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1808501.265302747</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2044936.265302747</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2044946.265302747</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2045000.265302747</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2026111.758802747</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2035425.020802747</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-2035414.020802747</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-2035404.020802747</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2035394.020802747</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2070247.294002747</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2070187.294002747</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2067981.251502747</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1982745.366002747</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2223466.219702747</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2225598.914702747</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2953714.298102746</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10747,831 +10747,743 @@
         <v>-3634939.504402746</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C315" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D315" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E315" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F315" t="n">
+        <v>56797.4521</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-3578142.052302747</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C316" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D316" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E316" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1223.7481</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-3578142.052302747</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C317" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D317" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E317" t="n">
         <v>13</v>
       </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
+      <c r="F317" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-3579152.052302747</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>13</v>
+      </c>
+      <c r="C318" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D318" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>13</v>
+      </c>
+      <c r="F318" t="n">
+        <v>510</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-3579152.052302747</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>13</v>
+      </c>
+      <c r="C319" t="n">
+        <v>13</v>
+      </c>
+      <c r="D319" t="n">
+        <v>13</v>
+      </c>
+      <c r="E319" t="n">
+        <v>13</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-3581652.052302747</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>13</v>
+      </c>
+      <c r="C320" t="n">
+        <v>13</v>
+      </c>
+      <c r="D320" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>13</v>
+      </c>
+      <c r="F320" t="n">
+        <v>4530</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-3581652.052302747</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C321" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D321" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E321" t="n">
+        <v>13</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1680</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-3579972.052302747</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E322" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F322" t="n">
+        <v>48268.6762</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-3579972.052302747</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>10</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-3579962.052302747</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E324" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F324" t="n">
+        <v>18</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-3579980.052302747</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C325" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D325" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E325" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F325" t="n">
+        <v>21816.7102</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-3579980.052302747</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C326" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D326" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E326" t="n">
+        <v>13</v>
+      </c>
+      <c r="F326" t="n">
+        <v>8554.717500000001</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-3579980.052302747</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>13</v>
+      </c>
+      <c r="C327" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E327" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F327" t="n">
+        <v>299928</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-3879908.052302747</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C328" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D328" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E328" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1940</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-3879908.052302747</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C329" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D329" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E329" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F329" t="n">
+        <v>299920</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-3879908.052302747</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D330" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E330" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F330" t="n">
+        <v>34185.877</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-3914093.929302746</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C331" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D331" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E331" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1210</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-3912883.929302746</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C332" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D332" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E332" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F332" t="n">
+        <v>9998</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-3902885.929302746</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E333" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F333" t="n">
+        <v>74.6268656716418</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-3902885.929302746</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C334" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D334" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E334" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F334" t="n">
+        <v>96679.98603432837</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-3806205.943268418</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C335" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D335" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E335" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F335" t="n">
+        <v>299920</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-4106125.943268418</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C336" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D336" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E336" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F336" t="n">
+        <v>299920</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-4406045.943268418</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C315" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D315" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E315" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F315" t="n">
-        <v>56797.4521</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-3578142.052302747</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C316" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D316" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E316" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F316" t="n">
-        <v>1223.7481</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-3578142.052302747</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C317" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D317" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E317" t="n">
-        <v>13</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1010</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-3579152.052302747</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>13</v>
-      </c>
-      <c r="C318" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D318" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E318" t="n">
-        <v>13</v>
-      </c>
-      <c r="F318" t="n">
-        <v>510</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-3579152.052302747</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>13</v>
-      </c>
-      <c r="C319" t="n">
-        <v>13</v>
-      </c>
-      <c r="D319" t="n">
-        <v>13</v>
-      </c>
-      <c r="E319" t="n">
-        <v>13</v>
-      </c>
-      <c r="F319" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-3581652.052302747</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>13</v>
-      </c>
-      <c r="C320" t="n">
-        <v>13</v>
-      </c>
-      <c r="D320" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E320" t="n">
-        <v>13</v>
-      </c>
-      <c r="F320" t="n">
-        <v>4530</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-3581652.052302747</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C321" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D321" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E321" t="n">
-        <v>13</v>
-      </c>
-      <c r="F321" t="n">
-        <v>1680</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-3579972.052302747</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E322" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F322" t="n">
-        <v>48268.6762</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-3579972.052302747</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E323" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F323" t="n">
-        <v>10</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-3579962.052302747</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E324" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F324" t="n">
-        <v>18</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C325" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D325" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E325" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F325" t="n">
-        <v>21816.7102</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C326" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D326" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E326" t="n">
-        <v>13</v>
-      </c>
-      <c r="F326" t="n">
-        <v>8554.717500000001</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>13</v>
-      </c>
-      <c r="C327" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D327" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E327" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F327" t="n">
-        <v>299928</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C328" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D328" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E328" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1940</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C329" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D329" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E329" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F329" t="n">
-        <v>299920</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C330" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D330" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E330" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F330" t="n">
-        <v>34185.877</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-3914093.929302746</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C331" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D331" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E331" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F331" t="n">
-        <v>1210</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-3912883.929302746</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C332" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D332" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E332" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F332" t="n">
-        <v>9998</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-3902885.929302746</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E333" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F333" t="n">
-        <v>74.6268656716418</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-3902885.929302746</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C334" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D334" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E334" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F334" t="n">
-        <v>96679.98603432837</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-3806205.943268418</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C335" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D335" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E335" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F335" t="n">
-        <v>299920</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-4106125.943268418</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C336" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D336" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E336" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F336" t="n">
-        <v>299920</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-4406045.943268418</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11600,9 +11512,11 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11637,9 +11551,11 @@
         <v>-4392392.867268418</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>

--- a/BackTest/2019-10-19 BackTest DVP.xlsx
+++ b/BackTest/2019-10-19 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M338"/>
+  <dimension ref="A1:L338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-233831.874351049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1030</v>
       </c>
       <c r="G3" t="n">
-        <v>-234861.874351049</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>54.8888</v>
       </c>
       <c r="G4" t="n">
-        <v>-234806.985551049</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>30.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>-234806.985551049</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-234816.985551049</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10.4444</v>
       </c>
       <c r="G7" t="n">
-        <v>-234806.541151049</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>214.4827</v>
       </c>
       <c r="G8" t="n">
-        <v>-234806.541151049</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1052.4444</v>
       </c>
       <c r="G9" t="n">
-        <v>-235858.985551049</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-235848.985551049</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>-235848.985551049</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1006.9644</v>
       </c>
       <c r="G12" t="n">
-        <v>-236855.949951049</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>-236815.949951049</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>32010</v>
       </c>
       <c r="G14" t="n">
-        <v>-236815.949951049</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-236815.949951049</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2252.7877</v>
       </c>
       <c r="G16" t="n">
-        <v>-236815.949951049</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>722.2472</v>
       </c>
       <c r="G17" t="n">
-        <v>-237538.197151049</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-237538.197151049</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-237538.197151049</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>12313.3274</v>
       </c>
       <c r="G20" t="n">
-        <v>-249851.524551049</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>-249831.524551049</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>324.7832</v>
       </c>
       <c r="G22" t="n">
-        <v>-249831.524551049</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>18.1812</v>
       </c>
       <c r="G23" t="n">
-        <v>-249849.705751049</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-249839.705751049</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>-249839.705751049</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>85463.7093</v>
       </c>
       <c r="G26" t="n">
-        <v>-164375.996451049</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>189686.8215</v>
       </c>
       <c r="G27" t="n">
-        <v>25310.825048951</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>32431.7694</v>
       </c>
       <c r="G28" t="n">
-        <v>25310.825048951</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>70010</v>
       </c>
       <c r="G29" t="n">
-        <v>-44699.174951049</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>271825.1034</v>
       </c>
       <c r="G30" t="n">
-        <v>-44699.174951049</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>69907.5992</v>
       </c>
       <c r="G31" t="n">
-        <v>-44699.174951049</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-44699.174951049</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>22.2222</v>
       </c>
       <c r="G33" t="n">
-        <v>-44699.174951049</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>304812.6975</v>
       </c>
       <c r="G34" t="n">
-        <v>-349511.872451049</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>444</v>
       </c>
       <c r="G35" t="n">
-        <v>-349955.872451049</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>69486.0699</v>
       </c>
       <c r="G36" t="n">
-        <v>-280469.802551049</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-280479.802551049</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>11233.7714</v>
       </c>
       <c r="G38" t="n">
-        <v>-291713.5739510491</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>50</v>
       </c>
       <c r="G39" t="n">
-        <v>-291663.5739510491</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>25000</v>
       </c>
       <c r="G40" t="n">
-        <v>-291663.5739510491</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>300</v>
       </c>
       <c r="G41" t="n">
-        <v>-291363.5739510491</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>13302.8472</v>
       </c>
       <c r="G42" t="n">
-        <v>-291363.5739510491</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>-291363.5739510491</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>147292.5208</v>
       </c>
       <c r="G44" t="n">
-        <v>-438656.0947510491</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>311782.543</v>
       </c>
       <c r="G45" t="n">
-        <v>-750438.6377510491</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-750428.6377510491</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>72019.75509999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-822448.3928510491</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>6885.7857</v>
       </c>
       <c r="G48" t="n">
-        <v>-822448.3928510491</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-822438.3928510491</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>103.775</v>
       </c>
       <c r="G50" t="n">
-        <v>-822438.3928510491</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>32.6662</v>
       </c>
       <c r="G51" t="n">
-        <v>-822438.3928510491</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>-822438.3928510491</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>92811.43730000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-915249.8301510491</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>11555.9275</v>
       </c>
       <c r="G54" t="n">
-        <v>-915249.8301510491</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>660</v>
       </c>
       <c r="G55" t="n">
-        <v>-915249.8301510491</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>34957.9989</v>
       </c>
       <c r="G56" t="n">
-        <v>-915249.8301510491</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>88792.1207</v>
       </c>
       <c r="G57" t="n">
-        <v>-826457.7094510491</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>189.93</v>
       </c>
       <c r="G58" t="n">
-        <v>-826457.7094510491</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>77371.2859</v>
       </c>
       <c r="G59" t="n">
-        <v>-903828.9953510491</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>222538.7141</v>
       </c>
       <c r="G60" t="n">
-        <v>-681290.2812510491</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>-681310.2812510491</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>299930</v>
       </c>
       <c r="G62" t="n">
-        <v>-981240.2812510491</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>-981230.2812510491</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>994.8201</v>
       </c>
       <c r="G64" t="n">
-        <v>-981230.2812510491</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-981220.2812510491</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-981230.2812510491</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>-981230.2812510491</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>21</v>
       </c>
       <c r="G68" t="n">
-        <v>-981251.2812510491</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>21</v>
       </c>
       <c r="G69" t="n">
-        <v>-981272.2812510491</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>236.2763</v>
       </c>
       <c r="G70" t="n">
-        <v>-981508.5575510492</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-981498.5575510492</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>29935</v>
       </c>
       <c r="G72" t="n">
-        <v>-981498.5575510492</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>241279.1149</v>
       </c>
       <c r="G73" t="n">
-        <v>-1222777.672451049</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>86240.8737</v>
       </c>
       <c r="G74" t="n">
-        <v>-1309018.546151049</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>249920</v>
       </c>
       <c r="G75" t="n">
-        <v>-1059098.546151049</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>18</v>
       </c>
       <c r="G76" t="n">
-        <v>-1059116.546151049</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>67.83580000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-1059048.710351049</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>56.1823</v>
       </c>
       <c r="G78" t="n">
-        <v>-1059048.710351049</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>-1059058.710351049</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>18.1823</v>
       </c>
       <c r="G80" t="n">
-        <v>-1059040.528051049</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>58.1823</v>
       </c>
       <c r="G81" t="n">
-        <v>-1058982.345751049</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>50</v>
       </c>
       <c r="G82" t="n">
-        <v>-1058982.345751049</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>5236.6704</v>
       </c>
       <c r="G83" t="n">
-        <v>-1064219.016151049</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>195259.6958851064</v>
       </c>
       <c r="G84" t="n">
-        <v>-868959.3202659425</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>44</v>
       </c>
       <c r="G85" t="n">
-        <v>-868959.3202659425</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>66550.89109999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-935510.2113659425</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>12128.1428</v>
       </c>
       <c r="G87" t="n">
-        <v>-947638.3541659425</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>997.8190352112676</v>
       </c>
       <c r="G88" t="n">
-        <v>-947638.3541659425</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>119.8186</v>
       </c>
       <c r="G89" t="n">
-        <v>-947518.5355659425</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>199922</v>
       </c>
       <c r="G90" t="n">
-        <v>-1147440.535565943</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>28</v>
       </c>
       <c r="G91" t="n">
-        <v>-1147412.535565943</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>56521.0454</v>
       </c>
       <c r="G92" t="n">
-        <v>-1203933.580965942</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>172498.9546</v>
       </c>
       <c r="G93" t="n">
-        <v>-1376432.535565943</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>5018.1814</v>
       </c>
       <c r="G94" t="n">
-        <v>-1371414.354165943</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>35588.5882</v>
       </c>
       <c r="G95" t="n">
-        <v>-1407002.942365943</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>31378.2937</v>
       </c>
       <c r="G96" t="n">
-        <v>-1375624.648665942</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>169891.75</v>
       </c>
       <c r="G97" t="n">
-        <v>-1205732.898665942</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>40.2962</v>
       </c>
       <c r="G98" t="n">
-        <v>-1205732.898665942</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>37</v>
       </c>
       <c r="G99" t="n">
-        <v>-1205695.898665942</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>3028.1814</v>
       </c>
       <c r="G100" t="n">
-        <v>-1205695.898665942</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>9997.638000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-1215693.536665943</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>46</v>
       </c>
       <c r="G102" t="n">
-        <v>-1215647.536665943</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>28</v>
       </c>
       <c r="G103" t="n">
-        <v>-1215647.536665943</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>18.136</v>
       </c>
       <c r="G104" t="n">
-        <v>-1215665.672665942</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>5099.864</v>
       </c>
       <c r="G105" t="n">
-        <v>-1220765.536665943</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>555.4814</v>
       </c>
       <c r="G106" t="n">
-        <v>-1220210.055265943</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>43703.006</v>
       </c>
       <c r="G107" t="n">
-        <v>-1263913.061265943</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>18.1814</v>
       </c>
       <c r="G108" t="n">
-        <v>-1263894.879865943</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>-1263912.879865943</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>15110</v>
       </c>
       <c r="G110" t="n">
-        <v>-1279022.879865943</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1527.1814</v>
       </c>
       <c r="G111" t="n">
-        <v>-1277495.698465943</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>60.8186</v>
       </c>
       <c r="G112" t="n">
-        <v>-1277495.698465943</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>20</v>
       </c>
       <c r="G113" t="n">
-        <v>-1277475.698465943</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1200</v>
       </c>
       <c r="G114" t="n">
-        <v>-1278675.698465943</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>20</v>
       </c>
       <c r="G115" t="n">
-        <v>-1278655.698465943</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>18.1836</v>
       </c>
       <c r="G116" t="n">
-        <v>-1278673.882065943</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-1278663.882065943</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>1459.684</v>
       </c>
       <c r="G118" t="n">
-        <v>-1280123.566065943</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>120.4972</v>
       </c>
       <c r="G119" t="n">
-        <v>-1280244.063265943</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>30</v>
       </c>
       <c r="G120" t="n">
-        <v>-1280214.063265943</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>18.1812</v>
       </c>
       <c r="G121" t="n">
-        <v>-1280232.244465943</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-1280222.244465943</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>58352.5547</v>
       </c>
       <c r="G123" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>3500</v>
       </c>
       <c r="G124" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>43370.3649</v>
       </c>
       <c r="G125" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>500</v>
       </c>
       <c r="G126" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>6021.4671</v>
       </c>
       <c r="G127" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1467.0072</v>
       </c>
       <c r="G128" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>65287.9562</v>
       </c>
       <c r="G129" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>72.99270072992701</v>
       </c>
       <c r="G130" t="n">
-        <v>-1221869.689765943</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>38621.8381</v>
       </c>
       <c r="G131" t="n">
-        <v>-1260491.527865943</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>20</v>
       </c>
       <c r="G132" t="n">
-        <v>-1260471.527865943</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-1260471.527865943</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>197478.3022</v>
       </c>
       <c r="G134" t="n">
-        <v>-1457949.830065943</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>70</v>
       </c>
       <c r="G135" t="n">
-        <v>-1457879.830065943</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>46097.9503</v>
       </c>
       <c r="G136" t="n">
-        <v>-1503977.780365943</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>17376.6737</v>
       </c>
       <c r="G137" t="n">
-        <v>-1486601.106665943</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>8.1812</v>
       </c>
       <c r="G138" t="n">
-        <v>-1486601.106665943</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>14232.9299</v>
       </c>
       <c r="G139" t="n">
-        <v>-1486601.106665943</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>987.2649</v>
       </c>
       <c r="G140" t="n">
-        <v>-1485613.841765943</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>98.6131</v>
       </c>
       <c r="G141" t="n">
-        <v>-1485613.841765943</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>7938.407129927007</v>
       </c>
       <c r="G142" t="n">
-        <v>-1477675.434636016</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>38063.6496</v>
       </c>
       <c r="G143" t="n">
-        <v>-1477675.434636016</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>9210.21897810219</v>
       </c>
       <c r="G144" t="n">
-        <v>-1477675.434636016</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>566</v>
       </c>
       <c r="G145" t="n">
-        <v>-1478241.434636016</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>9279.7358</v>
       </c>
       <c r="G146" t="n">
-        <v>-1478241.434636016</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>103210.9539</v>
       </c>
       <c r="G147" t="n">
-        <v>-1375030.480736016</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>-1375020.480736016</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>2589.1635</v>
       </c>
       <c r="G149" t="n">
-        <v>-1375020.480736016</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>146300.0729</v>
       </c>
       <c r="G150" t="n">
-        <v>-1228720.407836016</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>30</v>
       </c>
       <c r="G151" t="n">
-        <v>-1228720.407836016</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>-1228720.407836016</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>72.99270072992701</v>
       </c>
       <c r="G153" t="n">
-        <v>-1228720.407836016</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>269.7574</v>
       </c>
       <c r="G154" t="n">
-        <v>-1228990.165236016</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>3076</v>
       </c>
       <c r="G155" t="n">
-        <v>-1225914.165236016</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>22609.9266</v>
       </c>
       <c r="G156" t="n">
-        <v>-1225914.165236016</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>30</v>
       </c>
       <c r="G157" t="n">
-        <v>-1225914.165236016</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>-1225914.165236016</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1868.7286</v>
       </c>
       <c r="G159" t="n">
-        <v>-1225914.165236016</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>8278.2714</v>
       </c>
       <c r="G160" t="n">
-        <v>-1225914.165236016</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>4486.4852</v>
       </c>
       <c r="G161" t="n">
-        <v>-1225914.165236016</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>18.6015</v>
       </c>
       <c r="G162" t="n">
-        <v>-1225932.766736016</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>20243.00133455882</v>
       </c>
       <c r="G163" t="n">
-        <v>-1246175.768070575</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>-1246165.768070575</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-1246165.768070575</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>30</v>
       </c>
       <c r="G166" t="n">
-        <v>-1246165.768070575</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>-1246165.768070575</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>28</v>
       </c>
       <c r="G168" t="n">
-        <v>-1246165.768070575</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>72</v>
       </c>
       <c r="G169" t="n">
-        <v>-1246165.768070575</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>444.4082</v>
       </c>
       <c r="G170" t="n">
-        <v>-1246610.176270575</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>-1246600.176270575</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>156</v>
       </c>
       <c r="G172" t="n">
-        <v>-1246600.176270575</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>46</v>
       </c>
       <c r="G173" t="n">
-        <v>-1246600.176270575</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>58</v>
       </c>
       <c r="G174" t="n">
-        <v>-1246600.176270575</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>66</v>
       </c>
       <c r="G175" t="n">
-        <v>-1246600.176270575</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>2873.8235</v>
       </c>
       <c r="G176" t="n">
-        <v>-1246600.176270575</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>28.1812</v>
       </c>
       <c r="G177" t="n">
-        <v>-1246600.176270575</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>27648.0652</v>
       </c>
       <c r="G178" t="n">
-        <v>-1274248.241470575</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>269256.4243</v>
       </c>
       <c r="G179" t="n">
-        <v>-1543504.665770575</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>75471.6333</v>
       </c>
       <c r="G180" t="n">
-        <v>-1618976.299070575</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>7518.7969</v>
       </c>
       <c r="G181" t="n">
-        <v>-1611457.502170575</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>142686.5059656716</v>
       </c>
       <c r="G182" t="n">
-        <v>-1468770.996204903</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>158504.6100343284</v>
       </c>
       <c r="G183" t="n">
-        <v>-1310266.386170575</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>-1310256.386170575</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>141.6666</v>
       </c>
       <c r="G185" t="n">
-        <v>-1310398.052770575</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>44</v>
       </c>
       <c r="G186" t="n">
-        <v>-1310398.052770575</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>306785.1839</v>
       </c>
       <c r="G187" t="n">
-        <v>-1310398.052770575</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>44</v>
       </c>
       <c r="G188" t="n">
-        <v>-1310442.052770575</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>5933.028</v>
       </c>
       <c r="G189" t="n">
-        <v>-1310442.052770575</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>20</v>
       </c>
       <c r="G190" t="n">
-        <v>-1310422.052770575</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>75670.03170000001</v>
       </c>
       <c r="G191" t="n">
-        <v>-1386092.084470575</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>1000</v>
       </c>
       <c r="G192" t="n">
-        <v>-1387092.084470575</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>35504.88390073529</v>
       </c>
       <c r="G193" t="n">
-        <v>-1351587.20056984</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>10</v>
       </c>
       <c r="G194" t="n">
-        <v>-1351587.20056984</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>2599.428664705883</v>
       </c>
       <c r="G195" t="n">
-        <v>-1348987.771905134</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>28244.2477</v>
       </c>
       <c r="G196" t="n">
-        <v>-1348987.771905134</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>75000.00003529411</v>
       </c>
       <c r="G197" t="n">
-        <v>-1423987.771940428</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>10</v>
       </c>
       <c r="G198" t="n">
-        <v>-1423977.771940428</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>3566.6176</v>
       </c>
       <c r="G199" t="n">
-        <v>-1427544.389540428</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>-1427544.389540428</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>-1427544.389540428</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>5658.7073</v>
       </c>
       <c r="G202" t="n">
-        <v>-1427544.389540428</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>88.23520000000001</v>
       </c>
       <c r="G203" t="n">
-        <v>-1427456.154340428</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>54397.6162</v>
       </c>
       <c r="G204" t="n">
-        <v>-1481853.770540428</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>20</v>
       </c>
       <c r="G205" t="n">
-        <v>-1481833.770540428</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>10</v>
       </c>
       <c r="G206" t="n">
-        <v>-1481833.770540428</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>72.99270072992701</v>
       </c>
       <c r="G207" t="n">
-        <v>-1481833.770540428</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>-1481833.770540428</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>35416.1217</v>
       </c>
       <c r="G209" t="n">
-        <v>-1517249.892240428</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>-1517239.892240428</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>10</v>
       </c>
       <c r="G211" t="n">
-        <v>-1517239.892240428</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>10</v>
       </c>
       <c r="G212" t="n">
-        <v>-1517239.892240428</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>10</v>
       </c>
       <c r="G213" t="n">
-        <v>-1517239.892240428</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>36785.6617</v>
       </c>
       <c r="G214" t="n">
-        <v>-1554025.553940428</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>40620.3966</v>
       </c>
       <c r="G215" t="n">
-        <v>-1594645.950540428</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>105698.5773</v>
       </c>
       <c r="G216" t="n">
-        <v>-1488947.373240428</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>65148.28979927007</v>
       </c>
       <c r="G217" t="n">
-        <v>-1488947.373240428</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>88.23520000000001</v>
       </c>
       <c r="G218" t="n">
-        <v>-1488947.373240428</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>44</v>
       </c>
       <c r="G219" t="n">
-        <v>-1488903.373240428</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>30000</v>
       </c>
       <c r="G220" t="n">
-        <v>-1518903.373240428</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>570.7246376811594</v>
       </c>
       <c r="G221" t="n">
-        <v>-1518332.648602747</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>10</v>
       </c>
       <c r="G222" t="n">
-        <v>-1518332.648602747</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>50526.7391</v>
       </c>
       <c r="G223" t="n">
-        <v>-1518332.648602747</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>67545.5604</v>
       </c>
       <c r="G224" t="n">
-        <v>-1585878.209002747</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>17477.6278</v>
       </c>
       <c r="G225" t="n">
-        <v>-1585878.209002747</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>10</v>
       </c>
       <c r="G226" t="n">
-        <v>-1585868.209002747</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>7910.7753</v>
       </c>
       <c r="G227" t="n">
-        <v>-1585868.209002747</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>10</v>
       </c>
       <c r="G228" t="n">
-        <v>-1585868.209002747</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>36166.5217</v>
       </c>
       <c r="G229" t="n">
-        <v>-1585868.209002747</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>48293.00476231884</v>
       </c>
       <c r="G230" t="n">
-        <v>-1585868.209002747</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>10</v>
       </c>
       <c r="G231" t="n">
-        <v>-1585858.209002747</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>20</v>
       </c>
       <c r="G232" t="n">
-        <v>-1585858.209002747</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>395.6268</v>
       </c>
       <c r="G233" t="n">
-        <v>-1586253.835802747</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>70965.98579999999</v>
       </c>
       <c r="G234" t="n">
-        <v>-1515287.850002747</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>22</v>
       </c>
       <c r="G235" t="n">
-        <v>-1515287.850002747</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>3557.701</v>
       </c>
       <c r="G236" t="n">
-        <v>-1518845.551002747</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>857.812</v>
       </c>
       <c r="G237" t="n">
-        <v>-1518845.551002747</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>212.2857</v>
       </c>
       <c r="G238" t="n">
-        <v>-1518633.265302747</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>10</v>
       </c>
       <c r="G239" t="n">
-        <v>-1518633.265302747</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>10</v>
       </c>
       <c r="G240" t="n">
-        <v>-1518633.265302747</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>19669.6463</v>
       </c>
       <c r="G241" t="n">
-        <v>-1518633.265302747</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>10</v>
       </c>
       <c r="G242" t="n">
-        <v>-1518623.265302747</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>10000</v>
       </c>
       <c r="G243" t="n">
-        <v>-1528623.265302747</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>11</v>
       </c>
       <c r="G244" t="n">
-        <v>-1528612.265302747</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>279900</v>
       </c>
       <c r="G245" t="n">
-        <v>-1808512.265302747</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>11</v>
       </c>
       <c r="G246" t="n">
-        <v>-1808501.265302747</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>236435</v>
       </c>
       <c r="G247" t="n">
-        <v>-2044936.265302747</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>-2044946.265302747</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>54</v>
       </c>
       <c r="G249" t="n">
-        <v>-2045000.265302747</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>14204.705</v>
       </c>
       <c r="G250" t="n">
-        <v>-2030795.560302747</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>4694.8015</v>
       </c>
       <c r="G251" t="n">
-        <v>-2026100.758802747</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>1165.9467</v>
       </c>
       <c r="G252" t="n">
-        <v>-2026100.758802747</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>8632.0054</v>
       </c>
       <c r="G253" t="n">
-        <v>-2026100.758802747</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>11</v>
       </c>
       <c r="G254" t="n">
-        <v>-2026111.758802747</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>9313.262000000001</v>
       </c>
       <c r="G255" t="n">
-        <v>-2035425.020802747</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>1980</v>
       </c>
       <c r="G256" t="n">
-        <v>-2035425.020802747</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>11</v>
       </c>
       <c r="G257" t="n">
-        <v>-2035414.020802747</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>22198.2887</v>
       </c>
       <c r="G258" t="n">
-        <v>-2035414.020802747</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>10</v>
       </c>
       <c r="G259" t="n">
-        <v>-2035404.020802747</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>68435.7246</v>
       </c>
       <c r="G260" t="n">
-        <v>-2035404.020802747</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>4038.8768</v>
       </c>
       <c r="G261" t="n">
-        <v>-2035404.020802747</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>10</v>
       </c>
       <c r="G262" t="n">
-        <v>-2035394.020802747</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>50000</v>
       </c>
       <c r="G263" t="n">
-        <v>-2035394.020802747</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>44.4444</v>
       </c>
       <c r="G264" t="n">
-        <v>-2035438.465202747</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>40613.9613</v>
       </c>
       <c r="G265" t="n">
-        <v>-2035438.465202747</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>444.4444</v>
       </c>
       <c r="G266" t="n">
-        <v>-2035438.465202747</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>34808.8288</v>
       </c>
       <c r="G267" t="n">
-        <v>-2070247.294002747</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>60</v>
       </c>
       <c r="G268" t="n">
-        <v>-2070187.294002747</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>2206.0425</v>
       </c>
       <c r="G269" t="n">
-        <v>-2067981.251502747</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>85235.8855</v>
       </c>
       <c r="G270" t="n">
-        <v>-1982745.366002747</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>133873.1098</v>
       </c>
       <c r="G271" t="n">
-        <v>-1982745.366002747</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>10</v>
       </c>
       <c r="G272" t="n">
-        <v>-1982745.366002747</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>15416.7461</v>
       </c>
       <c r="G273" t="n">
-        <v>-1982745.366002747</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>104095.8497</v>
       </c>
       <c r="G274" t="n">
-        <v>-2086841.215702747</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>136635.004</v>
       </c>
       <c r="G275" t="n">
-        <v>-2223476.219702747</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>10</v>
       </c>
       <c r="G276" t="n">
-        <v>-2223466.219702747</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>2132.695</v>
       </c>
       <c r="G277" t="n">
-        <v>-2225598.914702747</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>4444.4444</v>
       </c>
       <c r="G278" t="n">
-        <v>-2230043.359102746</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>46034.6932</v>
       </c>
       <c r="G279" t="n">
-        <v>-2276078.052302747</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>5010</v>
       </c>
       <c r="G280" t="n">
-        <v>-2271068.052302747</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>299920</v>
       </c>
       <c r="G281" t="n">
-        <v>-2271068.052302747</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>299900</v>
       </c>
       <c r="G282" t="n">
-        <v>-2570968.052302747</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>969.134</v>
       </c>
       <c r="G283" t="n">
-        <v>-2569998.918302746</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>12</v>
       </c>
       <c r="G284" t="n">
-        <v>-2570010.918302746</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>11.97</v>
       </c>
       <c r="G285" t="n">
-        <v>-2570022.888302747</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>18.1822</v>
       </c>
       <c r="G286" t="n">
-        <v>-2570004.706102747</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>864.5856</v>
       </c>
       <c r="G287" t="n">
-        <v>-2570004.706102747</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>80</v>
       </c>
       <c r="G288" t="n">
-        <v>-2569924.706102747</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>38692.6618</v>
       </c>
       <c r="G289" t="n">
-        <v>-2608617.367902746</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>10</v>
       </c>
       <c r="G290" t="n">
-        <v>-2608607.367902746</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>21384.3708</v>
       </c>
       <c r="G291" t="n">
-        <v>-2629991.738702747</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>14096.5403</v>
       </c>
       <c r="G292" t="n">
-        <v>-2615895.198402747</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>29824.8649</v>
       </c>
       <c r="G293" t="n">
-        <v>-2645720.063302747</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>11</v>
       </c>
       <c r="G294" t="n">
-        <v>-2645709.063302747</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>1044</v>
       </c>
       <c r="G295" t="n">
-        <v>-2646753.063302747</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>10</v>
       </c>
       <c r="G296" t="n">
-        <v>-2646743.063302747</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>60825.3378</v>
       </c>
       <c r="G297" t="n">
-        <v>-2707568.401102746</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>258344.7031</v>
       </c>
       <c r="G298" t="n">
-        <v>-2965913.104202746</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>14165.028</v>
       </c>
       <c r="G299" t="n">
-        <v>-2951748.076202746</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>14466.5217</v>
       </c>
       <c r="G300" t="n">
-        <v>-2966214.597902746</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>14145.028</v>
       </c>
       <c r="G301" t="n">
-        <v>-2952069.569902746</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>2749.0495</v>
       </c>
       <c r="G302" t="n">
-        <v>-2949320.520402746</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>18337.647</v>
       </c>
       <c r="G303" t="n">
-        <v>-2949320.520402746</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,15 @@
         <v>54</v>
       </c>
       <c r="G304" t="n">
-        <v>-2949320.520402746</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9533,15 @@
         <v>4393.7777</v>
       </c>
       <c r="G305" t="n">
-        <v>-2953714.298102746</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9563,15 @@
         <v>10</v>
       </c>
       <c r="G306" t="n">
-        <v>-2953704.298102746</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9593,15 @@
         <v>126566.2357</v>
       </c>
       <c r="G307" t="n">
-        <v>-2953704.298102746</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9623,15 @@
         <v>10</v>
       </c>
       <c r="G308" t="n">
-        <v>-2953714.298102746</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9653,15 @@
         <v>787040.9491</v>
       </c>
       <c r="G309" t="n">
-        <v>-3740755.247202746</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9683,15 @@
         <v>10</v>
       </c>
       <c r="G310" t="n">
-        <v>-3740755.247202746</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9713,15 @@
         <v>6702.6873</v>
       </c>
       <c r="G311" t="n">
-        <v>-3734052.559902746</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9743,15 @@
         <v>7029.5155</v>
       </c>
       <c r="G312" t="n">
-        <v>-3741082.075402746</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9773,15 @@
         <v>13058.5465</v>
       </c>
       <c r="G313" t="n">
-        <v>-3741082.075402746</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9803,15 @@
         <v>106142.571</v>
       </c>
       <c r="G314" t="n">
-        <v>-3634939.504402746</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9833,15 @@
         <v>56797.4521</v>
       </c>
       <c r="G315" t="n">
-        <v>-3578142.052302747</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9863,15 @@
         <v>1223.7481</v>
       </c>
       <c r="G316" t="n">
-        <v>-3578142.052302747</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9893,15 @@
         <v>1010</v>
       </c>
       <c r="G317" t="n">
-        <v>-3579152.052302747</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9923,15 @@
         <v>510</v>
       </c>
       <c r="G318" t="n">
-        <v>-3579152.052302747</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9953,19 @@
         <v>2500</v>
       </c>
       <c r="G319" t="n">
-        <v>-3581652.052302747</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>13.2</v>
+      </c>
+      <c r="I319" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +9987,23 @@
         <v>4530</v>
       </c>
       <c r="G320" t="n">
-        <v>-3581652.052302747</v>
+        <v>1</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="I320" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10025,23 @@
         <v>1680</v>
       </c>
       <c r="G321" t="n">
-        <v>-3579972.052302747</v>
+        <v>1</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="I321" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10063,21 @@
         <v>48268.6762</v>
       </c>
       <c r="G322" t="n">
-        <v>-3579972.052302747</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10099,21 @@
         <v>10</v>
       </c>
       <c r="G323" t="n">
-        <v>-3579962.052302747</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10135,21 @@
         <v>18</v>
       </c>
       <c r="G324" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10171,21 @@
         <v>21816.7102</v>
       </c>
       <c r="G325" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10207,21 @@
         <v>8554.717500000001</v>
       </c>
       <c r="G326" t="n">
-        <v>-3579980.052302747</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10243,21 @@
         <v>299928</v>
       </c>
       <c r="G327" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10279,21 @@
         <v>1940</v>
       </c>
       <c r="G328" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10315,21 @@
         <v>299920</v>
       </c>
       <c r="G329" t="n">
-        <v>-3879908.052302747</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10351,21 @@
         <v>34185.877</v>
       </c>
       <c r="G330" t="n">
-        <v>-3914093.929302746</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10387,21 @@
         <v>1210</v>
       </c>
       <c r="G331" t="n">
-        <v>-3912883.929302746</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10423,21 @@
         <v>9998</v>
       </c>
       <c r="G332" t="n">
-        <v>-3902885.929302746</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,18 +10459,21 @@
         <v>74.6268656716418</v>
       </c>
       <c r="G333" t="n">
-        <v>-3902885.929302746</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11404,18 +10495,21 @@
         <v>96679.98603432837</v>
       </c>
       <c r="G334" t="n">
-        <v>-3806205.943268418</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11437,18 +10531,21 @@
         <v>299920</v>
       </c>
       <c r="G335" t="n">
-        <v>-4106125.943268418</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11470,24 +10567,21 @@
         <v>299920</v>
       </c>
       <c r="G336" t="n">
-        <v>-4406045.943268418</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="J336" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11509,24 +10603,21 @@
         <v>220</v>
       </c>
       <c r="G337" t="n">
-        <v>-4406045.943268418</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="J337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11548,24 +10639,21 @@
         <v>13653.076</v>
       </c>
       <c r="G338" t="n">
-        <v>-4392392.867268418</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="J338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
